--- a/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_31-Aug-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Bank_Nifty_Data_31-Aug-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B2" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15267</v>
+        <v>9723</v>
       </c>
       <c r="E2" t="n">
-        <v>-6091</v>
+        <v>-4181</v>
       </c>
       <c r="F2" t="n">
-        <v>-28.51858788276056</v>
+        <v>-30.0704833141542</v>
       </c>
       <c r="G2" t="n">
-        <v>73802</v>
+        <v>48709</v>
       </c>
       <c r="H2" t="n">
-        <v>11.91</v>
+        <v>11.71</v>
       </c>
       <c r="I2" t="n">
-        <v>461.55</v>
+        <v>493.05</v>
       </c>
       <c r="J2" t="n">
-        <v>108.25</v>
+        <v>7.050000000000011</v>
       </c>
       <c r="K2" t="n">
-        <v>30.63968298896122</v>
+        <v>1.45061728395062</v>
       </c>
       <c r="L2" t="n">
-        <v>29895</v>
+        <v>25110</v>
       </c>
       <c r="M2" t="n">
-        <v>30555</v>
+        <v>23925</v>
       </c>
       <c r="N2" t="n">
-        <v>25991</v>
+        <v>39227</v>
       </c>
       <c r="O2" t="n">
-        <v>3000</v>
+        <v>4642</v>
       </c>
       <c r="P2" t="n">
-        <v>13.0485842286112</v>
+        <v>13.42200375885499</v>
       </c>
       <c r="Q2" t="n">
-        <v>220628</v>
+        <v>317458</v>
       </c>
       <c r="R2" t="n">
-        <v>11.65</v>
+        <v>11.48</v>
       </c>
       <c r="S2" t="n">
-        <v>163.25</v>
+        <v>141.9</v>
       </c>
       <c r="T2" t="n">
-        <v>-73.69999999999999</v>
+        <v>-27.59999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>-31.10360835619328</v>
+        <v>-16.28318584070796</v>
       </c>
       <c r="V2" t="n">
-        <v>37260</v>
+        <v>42210</v>
       </c>
       <c r="W2" t="n">
-        <v>43695</v>
+        <v>43455</v>
       </c>
       <c r="X2" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B3" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81472</v>
+        <v>14244</v>
       </c>
       <c r="E3" t="n">
-        <v>6198</v>
+        <v>-7427</v>
       </c>
       <c r="F3" t="n">
-        <v>8.23391875016606</v>
+        <v>-34.27160721701814</v>
       </c>
       <c r="G3" t="n">
-        <v>369439</v>
+        <v>126209</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39</v>
+        <v>11.49</v>
       </c>
       <c r="I3" t="n">
-        <v>392.6</v>
+        <v>421.9</v>
       </c>
       <c r="J3" t="n">
-        <v>98</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="K3" t="n">
-        <v>33.26544467073999</v>
+        <v>-0.02369668246446037</v>
       </c>
       <c r="L3" t="n">
-        <v>74580</v>
+        <v>26550</v>
       </c>
       <c r="M3" t="n">
-        <v>122955</v>
+        <v>24600</v>
       </c>
       <c r="N3" t="n">
-        <v>89198</v>
+        <v>38610</v>
       </c>
       <c r="O3" t="n">
-        <v>27593</v>
+        <v>10086</v>
       </c>
       <c r="P3" t="n">
-        <v>44.79019560100641</v>
+        <v>35.35969709718132</v>
       </c>
       <c r="Q3" t="n">
-        <v>574661</v>
+        <v>329512</v>
       </c>
       <c r="R3" t="n">
-        <v>11.44</v>
+        <v>11.3</v>
       </c>
       <c r="S3" t="n">
-        <v>196.45</v>
+        <v>171.35</v>
       </c>
       <c r="T3" t="n">
-        <v>-82.25</v>
+        <v>-27.84999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>-29.51202009329027</v>
+        <v>-13.98092369477911</v>
       </c>
       <c r="V3" t="n">
-        <v>70470</v>
+        <v>60465</v>
       </c>
       <c r="W3" t="n">
-        <v>99315</v>
+        <v>39030</v>
       </c>
       <c r="X3" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B4" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36245</v>
+        <v>21073</v>
       </c>
       <c r="E4" t="n">
-        <v>10338</v>
+        <v>-285</v>
       </c>
       <c r="F4" t="n">
-        <v>39.90427297641564</v>
+        <v>-1.334394606236539</v>
       </c>
       <c r="G4" t="n">
-        <v>240859</v>
+        <v>161031</v>
       </c>
       <c r="H4" t="n">
-        <v>11.46</v>
+        <v>11.35</v>
       </c>
       <c r="I4" t="n">
-        <v>334.1</v>
+        <v>358.6</v>
       </c>
       <c r="J4" t="n">
-        <v>90.15000000000003</v>
+        <v>5.300000000000011</v>
       </c>
       <c r="K4" t="n">
-        <v>36.95429391268704</v>
+        <v>1.500141522785172</v>
       </c>
       <c r="L4" t="n">
-        <v>44805</v>
+        <v>31545</v>
       </c>
       <c r="M4" t="n">
-        <v>75705</v>
+        <v>53730</v>
       </c>
       <c r="N4" t="n">
-        <v>26565</v>
+        <v>31884</v>
       </c>
       <c r="O4" t="n">
-        <v>17104</v>
+        <v>8893</v>
       </c>
       <c r="P4" t="n">
-        <v>180.784272275658</v>
+        <v>38.68035318167978</v>
       </c>
       <c r="Q4" t="n">
-        <v>284536</v>
+        <v>394220</v>
       </c>
       <c r="R4" t="n">
-        <v>11.38</v>
+        <v>11.16</v>
       </c>
       <c r="S4" t="n">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="T4" t="n">
-        <v>-91.85000000000002</v>
+        <v>-30.94999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>-28.01586091200245</v>
+        <v>-13.06182738974467</v>
       </c>
       <c r="V4" t="n">
-        <v>49635</v>
+        <v>51975</v>
       </c>
       <c r="W4" t="n">
-        <v>64185</v>
+        <v>46545</v>
       </c>
       <c r="X4" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B5" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>54641</v>
+        <v>112634</v>
       </c>
       <c r="E5" t="n">
-        <v>26002</v>
+        <v>37360</v>
       </c>
       <c r="F5" t="n">
-        <v>90.79227626662941</v>
+        <v>49.63201105295321</v>
       </c>
       <c r="G5" t="n">
-        <v>419456</v>
+        <v>754441</v>
       </c>
       <c r="H5" t="n">
-        <v>11.2</v>
+        <v>11.16</v>
       </c>
       <c r="I5" t="n">
-        <v>276.7</v>
+        <v>298.95</v>
       </c>
       <c r="J5" t="n">
-        <v>77.84999999999999</v>
+        <v>4.349999999999966</v>
       </c>
       <c r="K5" t="n">
-        <v>39.15011315061604</v>
+        <v>1.476578411405284</v>
       </c>
       <c r="L5" t="n">
-        <v>87285</v>
+        <v>96990</v>
       </c>
       <c r="M5" t="n">
-        <v>128250</v>
+        <v>193080</v>
       </c>
       <c r="N5" t="n">
-        <v>28665</v>
+        <v>108207</v>
       </c>
       <c r="O5" t="n">
-        <v>20808</v>
+        <v>46602</v>
       </c>
       <c r="P5" t="n">
-        <v>264.8339060710195</v>
+        <v>75.64645726807889</v>
       </c>
       <c r="Q5" t="n">
-        <v>378446</v>
+        <v>1099991</v>
       </c>
       <c r="R5" t="n">
-        <v>11.25</v>
+        <v>11.06</v>
       </c>
       <c r="S5" t="n">
-        <v>281.4</v>
+        <v>248</v>
       </c>
       <c r="T5" t="n">
-        <v>-100.1</v>
+        <v>-30.69999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>-26.23853211009175</v>
+        <v>-11.01542877646214</v>
       </c>
       <c r="V5" t="n">
-        <v>45840</v>
+        <v>107820</v>
       </c>
       <c r="W5" t="n">
-        <v>44370</v>
+        <v>127425</v>
       </c>
       <c r="X5" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B6" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57529</v>
+        <v>53745</v>
       </c>
       <c r="E6" t="n">
-        <v>30788</v>
+        <v>27838</v>
       </c>
       <c r="F6" t="n">
-        <v>115.1340637971654</v>
+        <v>107.4535839734435</v>
       </c>
       <c r="G6" t="n">
-        <v>453737</v>
+        <v>530414</v>
       </c>
       <c r="H6" t="n">
-        <v>11.17</v>
+        <v>11.1</v>
       </c>
       <c r="I6" t="n">
-        <v>230</v>
+        <v>246.75</v>
       </c>
       <c r="J6" t="n">
-        <v>69.80000000000001</v>
+        <v>2.800000000000011</v>
       </c>
       <c r="K6" t="n">
-        <v>43.57053682896381</v>
+        <v>1.147776183644194</v>
       </c>
       <c r="L6" t="n">
-        <v>62475</v>
+        <v>41340</v>
       </c>
       <c r="M6" t="n">
-        <v>168840</v>
+        <v>128790</v>
       </c>
       <c r="N6" t="n">
-        <v>31702</v>
+        <v>29603</v>
       </c>
       <c r="O6" t="n">
-        <v>25692</v>
+        <v>20142</v>
       </c>
       <c r="P6" t="n">
-        <v>427.4875207986689</v>
+        <v>212.8950428073142</v>
       </c>
       <c r="Q6" t="n">
-        <v>408662</v>
+        <v>554598</v>
       </c>
       <c r="R6" t="n">
-        <v>11.11</v>
+        <v>10.93</v>
       </c>
       <c r="S6" t="n">
-        <v>331.1</v>
+        <v>292.35</v>
       </c>
       <c r="T6" t="n">
-        <v>-113.35</v>
+        <v>-35.5</v>
       </c>
       <c r="U6" t="n">
-        <v>-25.50343120710991</v>
+        <v>-10.82812261705048</v>
       </c>
       <c r="V6" t="n">
-        <v>55830</v>
+        <v>39945</v>
       </c>
       <c r="W6" t="n">
-        <v>45675</v>
+        <v>41790</v>
       </c>
       <c r="X6" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54466435185</v>
+        <v>45162.64196759259</v>
       </c>
       <c r="B7" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42433</v>
+        <v>63933</v>
       </c>
       <c r="E7" t="n">
-        <v>23787</v>
+        <v>35294</v>
       </c>
       <c r="F7" t="n">
-        <v>127.5715971253888</v>
+        <v>123.2375432103076</v>
       </c>
       <c r="G7" t="n">
-        <v>309505</v>
+        <v>690732</v>
       </c>
       <c r="H7" t="n">
-        <v>11.16</v>
+        <v>11.01</v>
       </c>
       <c r="I7" t="n">
-        <v>186.6</v>
+        <v>200</v>
       </c>
       <c r="J7" t="n">
-        <v>60.55</v>
+        <v>1.150000000000006</v>
       </c>
       <c r="K7" t="n">
-        <v>48.03649345497818</v>
+        <v>0.5783253708825777</v>
       </c>
       <c r="L7" t="n">
-        <v>41580</v>
+        <v>64275</v>
       </c>
       <c r="M7" t="n">
-        <v>111210</v>
+        <v>173235</v>
       </c>
       <c r="N7" t="n">
-        <v>17380</v>
+        <v>25076</v>
       </c>
       <c r="O7" t="n">
-        <v>14846</v>
+        <v>17219</v>
       </c>
       <c r="P7" t="n">
-        <v>585.872138910813</v>
+        <v>219.1548937253405</v>
       </c>
       <c r="Q7" t="n">
-        <v>204521</v>
+        <v>559668</v>
       </c>
       <c r="R7" t="n">
-        <v>11.14</v>
+        <v>10.82</v>
       </c>
       <c r="S7" t="n">
-        <v>387</v>
+        <v>348.7</v>
       </c>
       <c r="T7" t="n">
-        <v>-119.95</v>
+        <v>-32.80000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>-23.66111056317191</v>
+        <v>-8.597640891218877</v>
       </c>
       <c r="V7" t="n">
-        <v>37335</v>
+        <v>37305</v>
       </c>
       <c r="W7" t="n">
-        <v>29415</v>
+        <v>33585</v>
       </c>
       <c r="X7" t="n">
-        <v>44611.4</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15570</v>
+        <v>9723</v>
       </c>
       <c r="E8" t="n">
-        <v>-5788</v>
+        <v>-4181</v>
       </c>
       <c r="F8" t="n">
-        <v>-27.09991572244592</v>
+        <v>-30.0704833141542</v>
       </c>
       <c r="G8" t="n">
-        <v>73100</v>
+        <v>48709</v>
       </c>
       <c r="H8" t="n">
-        <v>11.69</v>
+        <v>11.71</v>
       </c>
       <c r="I8" t="n">
-        <v>451.9</v>
+        <v>493.05</v>
       </c>
       <c r="J8" t="n">
-        <v>98.59999999999997</v>
+        <v>7.050000000000011</v>
       </c>
       <c r="K8" t="n">
-        <v>27.90829323521086</v>
+        <v>1.45061728395062</v>
       </c>
       <c r="L8" t="n">
-        <v>31380</v>
+        <v>25110</v>
       </c>
       <c r="M8" t="n">
-        <v>33195</v>
+        <v>23925</v>
       </c>
       <c r="N8" t="n">
-        <v>25837</v>
+        <v>39227</v>
       </c>
       <c r="O8" t="n">
-        <v>2846</v>
+        <v>4642</v>
       </c>
       <c r="P8" t="n">
-        <v>12.37875690487582</v>
+        <v>13.42200375885499</v>
       </c>
       <c r="Q8" t="n">
-        <v>220203</v>
+        <v>317458</v>
       </c>
       <c r="R8" t="n">
-        <v>11.82</v>
+        <v>11.48</v>
       </c>
       <c r="S8" t="n">
-        <v>169.1</v>
+        <v>141.9</v>
       </c>
       <c r="T8" t="n">
-        <v>-67.84999999999999</v>
+        <v>-27.59999999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>-28.63473306604769</v>
+        <v>-16.28318584070796</v>
       </c>
       <c r="V8" t="n">
-        <v>33075</v>
+        <v>42210</v>
       </c>
       <c r="W8" t="n">
-        <v>44475</v>
+        <v>43455</v>
       </c>
       <c r="X8" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>81560</v>
+        <v>14244</v>
       </c>
       <c r="E9" t="n">
-        <v>6286</v>
+        <v>-7427</v>
       </c>
       <c r="F9" t="n">
-        <v>8.350824986050961</v>
+        <v>-34.27160721701814</v>
       </c>
       <c r="G9" t="n">
-        <v>368456</v>
+        <v>126209</v>
       </c>
       <c r="H9" t="n">
-        <v>11.46</v>
+        <v>11.49</v>
       </c>
       <c r="I9" t="n">
-        <v>383.95</v>
+        <v>421.9</v>
       </c>
       <c r="J9" t="n">
-        <v>89.34999999999997</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="K9" t="n">
-        <v>30.32926001357772</v>
+        <v>-0.02369668246446037</v>
       </c>
       <c r="L9" t="n">
-        <v>73335</v>
+        <v>26550</v>
       </c>
       <c r="M9" t="n">
-        <v>124050</v>
+        <v>24600</v>
       </c>
       <c r="N9" t="n">
-        <v>88905</v>
+        <v>38610</v>
       </c>
       <c r="O9" t="n">
-        <v>27300</v>
+        <v>10086</v>
       </c>
       <c r="P9" t="n">
-        <v>44.3145848551254</v>
+        <v>35.35969709718132</v>
       </c>
       <c r="Q9" t="n">
-        <v>573143</v>
+        <v>329512</v>
       </c>
       <c r="R9" t="n">
-        <v>11.64</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>202.95</v>
+        <v>171.35</v>
       </c>
       <c r="T9" t="n">
-        <v>-75.75</v>
+        <v>-27.84999999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>-27.17976318622175</v>
+        <v>-13.98092369477911</v>
       </c>
       <c r="V9" t="n">
-        <v>74760</v>
+        <v>60465</v>
       </c>
       <c r="W9" t="n">
-        <v>98850</v>
+        <v>39030</v>
       </c>
       <c r="X9" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36212</v>
+        <v>21073</v>
       </c>
       <c r="E10" t="n">
-        <v>10305</v>
+        <v>-285</v>
       </c>
       <c r="F10" t="n">
-        <v>39.77689427567839</v>
+        <v>-1.334394606236539</v>
       </c>
       <c r="G10" t="n">
-        <v>238123</v>
+        <v>161031</v>
       </c>
       <c r="H10" t="n">
-        <v>11.42</v>
+        <v>11.35</v>
       </c>
       <c r="I10" t="n">
-        <v>326.4</v>
+        <v>358.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.44999999999999</v>
+        <v>5.300000000000011</v>
       </c>
       <c r="K10" t="n">
-        <v>33.7979094076655</v>
+        <v>1.500141522785172</v>
       </c>
       <c r="L10" t="n">
-        <v>42285</v>
+        <v>31545</v>
       </c>
       <c r="M10" t="n">
-        <v>75900</v>
+        <v>53730</v>
       </c>
       <c r="N10" t="n">
-        <v>26536</v>
+        <v>31884</v>
       </c>
       <c r="O10" t="n">
-        <v>17075</v>
+        <v>8893</v>
       </c>
       <c r="P10" t="n">
-        <v>180.4777507663038</v>
+        <v>38.68035318167978</v>
       </c>
       <c r="Q10" t="n">
-        <v>283513</v>
+        <v>394220</v>
       </c>
       <c r="R10" t="n">
-        <v>11.59</v>
+        <v>11.16</v>
       </c>
       <c r="S10" t="n">
-        <v>243.75</v>
+        <v>206</v>
       </c>
       <c r="T10" t="n">
-        <v>-84.10000000000002</v>
+        <v>-30.94999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>-25.65197498856185</v>
+        <v>-13.06182738974467</v>
       </c>
       <c r="V10" t="n">
-        <v>47745</v>
+        <v>51975</v>
       </c>
       <c r="W10" t="n">
-        <v>61665</v>
+        <v>46545</v>
       </c>
       <c r="X10" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54040</v>
+        <v>112634</v>
       </c>
       <c r="E11" t="n">
-        <v>25401</v>
+        <v>37360</v>
       </c>
       <c r="F11" t="n">
-        <v>88.69373930654004</v>
+        <v>49.63201105295321</v>
       </c>
       <c r="G11" t="n">
-        <v>416762</v>
+        <v>754441</v>
       </c>
       <c r="H11" t="n">
-        <v>11.3</v>
+        <v>11.16</v>
       </c>
       <c r="I11" t="n">
-        <v>268.25</v>
+        <v>298.95</v>
       </c>
       <c r="J11" t="n">
-        <v>69.40000000000001</v>
+        <v>4.349999999999966</v>
       </c>
       <c r="K11" t="n">
-        <v>34.90067890369626</v>
+        <v>1.476578411405284</v>
       </c>
       <c r="L11" t="n">
-        <v>82875</v>
+        <v>96990</v>
       </c>
       <c r="M11" t="n">
-        <v>128295</v>
+        <v>193080</v>
       </c>
       <c r="N11" t="n">
-        <v>28100</v>
+        <v>108207</v>
       </c>
       <c r="O11" t="n">
-        <v>20243</v>
+        <v>46602</v>
       </c>
       <c r="P11" t="n">
-        <v>257.6428662339315</v>
+        <v>75.64645726807889</v>
       </c>
       <c r="Q11" t="n">
-        <v>376613</v>
+        <v>1099991</v>
       </c>
       <c r="R11" t="n">
-        <v>11.45</v>
+        <v>11.06</v>
       </c>
       <c r="S11" t="n">
-        <v>286.95</v>
+        <v>248</v>
       </c>
       <c r="T11" t="n">
-        <v>-94.55000000000001</v>
+        <v>-30.69999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>-24.78374836173002</v>
+        <v>-11.01542877646214</v>
       </c>
       <c r="V11" t="n">
-        <v>48930</v>
+        <v>107820</v>
       </c>
       <c r="W11" t="n">
-        <v>39375</v>
+        <v>127425</v>
       </c>
       <c r="X11" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57055</v>
+        <v>53745</v>
       </c>
       <c r="E12" t="n">
-        <v>30314</v>
+        <v>27838</v>
       </c>
       <c r="F12" t="n">
-        <v>113.3615048053551</v>
+        <v>107.4535839734435</v>
       </c>
       <c r="G12" t="n">
-        <v>452848</v>
+        <v>530414</v>
       </c>
       <c r="H12" t="n">
-        <v>11.23</v>
+        <v>11.1</v>
       </c>
       <c r="I12" t="n">
-        <v>219.85</v>
+        <v>246.75</v>
       </c>
       <c r="J12" t="n">
-        <v>59.65000000000001</v>
+        <v>2.800000000000011</v>
       </c>
       <c r="K12" t="n">
-        <v>37.2347066167291</v>
+        <v>1.147776183644194</v>
       </c>
       <c r="L12" t="n">
-        <v>58935</v>
+        <v>41340</v>
       </c>
       <c r="M12" t="n">
-        <v>166635</v>
+        <v>128790</v>
       </c>
       <c r="N12" t="n">
-        <v>31861</v>
+        <v>29603</v>
       </c>
       <c r="O12" t="n">
-        <v>25851</v>
+        <v>20142</v>
       </c>
       <c r="P12" t="n">
-        <v>430.1331114808652</v>
+        <v>212.8950428073142</v>
       </c>
       <c r="Q12" t="n">
-        <v>408054</v>
+        <v>554598</v>
       </c>
       <c r="R12" t="n">
-        <v>11.44</v>
+        <v>10.93</v>
       </c>
       <c r="S12" t="n">
-        <v>342.45</v>
+        <v>292.35</v>
       </c>
       <c r="T12" t="n">
-        <v>-102</v>
+        <v>-35.5</v>
       </c>
       <c r="U12" t="n">
-        <v>-22.94971312858589</v>
+        <v>-10.82812261705048</v>
       </c>
       <c r="V12" t="n">
-        <v>55860</v>
+        <v>39945</v>
       </c>
       <c r="W12" t="n">
-        <v>44100</v>
+        <v>41790</v>
       </c>
       <c r="X12" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.5439699074</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42574</v>
+        <v>63933</v>
       </c>
       <c r="E13" t="n">
-        <v>23928</v>
+        <v>35294</v>
       </c>
       <c r="F13" t="n">
-        <v>128.3277914834281</v>
+        <v>123.2375432103076</v>
       </c>
       <c r="G13" t="n">
-        <v>309002</v>
+        <v>690732</v>
       </c>
       <c r="H13" t="n">
-        <v>11.2</v>
+        <v>11.01</v>
       </c>
       <c r="I13" t="n">
-        <v>182.05</v>
+        <v>200</v>
       </c>
       <c r="J13" t="n">
-        <v>56.00000000000001</v>
+        <v>1.150000000000006</v>
       </c>
       <c r="K13" t="n">
-        <v>44.4268147560492</v>
+        <v>0.5783253708825777</v>
       </c>
       <c r="L13" t="n">
-        <v>39105</v>
+        <v>64275</v>
       </c>
       <c r="M13" t="n">
-        <v>110595</v>
+        <v>173235</v>
       </c>
       <c r="N13" t="n">
-        <v>17409</v>
+        <v>25076</v>
       </c>
       <c r="O13" t="n">
-        <v>14875</v>
+        <v>17219</v>
       </c>
       <c r="P13" t="n">
-        <v>587.0165745856353</v>
+        <v>219.1548937253405</v>
       </c>
       <c r="Q13" t="n">
-        <v>203729</v>
+        <v>559668</v>
       </c>
       <c r="R13" t="n">
-        <v>11.35</v>
+        <v>10.82</v>
       </c>
       <c r="S13" t="n">
-        <v>398.4</v>
+        <v>348.7</v>
       </c>
       <c r="T13" t="n">
-        <v>-108.55</v>
+        <v>-32.80000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>-21.41236808363744</v>
+        <v>-8.597640891218877</v>
       </c>
       <c r="V13" t="n">
-        <v>37185</v>
+        <v>37305</v>
       </c>
       <c r="W13" t="n">
-        <v>28650</v>
+        <v>33585</v>
       </c>
       <c r="X13" t="n">
-        <v>44619.85</v>
+        <v>44531.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B14" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15205</v>
+        <v>14244</v>
       </c>
       <c r="E14" t="n">
-        <v>-6153</v>
+        <v>-7427</v>
       </c>
       <c r="F14" t="n">
-        <v>-28.80887723569623</v>
+        <v>-34.27160721701814</v>
       </c>
       <c r="G14" t="n">
-        <v>72827</v>
+        <v>125814</v>
       </c>
       <c r="H14" t="n">
-        <v>11.69</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>454.95</v>
+        <v>430.5</v>
       </c>
       <c r="J14" t="n">
-        <v>101.65</v>
+        <v>8.5</v>
       </c>
       <c r="K14" t="n">
-        <v>28.77158222473818</v>
+        <v>2.014218009478673</v>
       </c>
       <c r="L14" t="n">
-        <v>30015</v>
+        <v>26160</v>
       </c>
       <c r="M14" t="n">
-        <v>32475</v>
+        <v>25575</v>
       </c>
       <c r="N14" t="n">
-        <v>25786</v>
+        <v>38610</v>
       </c>
       <c r="O14" t="n">
-        <v>2795</v>
+        <v>10086</v>
       </c>
       <c r="P14" t="n">
-        <v>12.15693097298943</v>
+        <v>35.35969709718132</v>
       </c>
       <c r="Q14" t="n">
-        <v>219497</v>
+        <v>327195</v>
       </c>
       <c r="R14" t="n">
-        <v>11.82</v>
+        <v>11.95</v>
       </c>
       <c r="S14" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T14" t="n">
-        <v>-72.94999999999999</v>
+        <v>-31.19999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>-30.7870858830977</v>
+        <v>-15.66265060240963</v>
       </c>
       <c r="V14" t="n">
-        <v>33360</v>
+        <v>62340</v>
       </c>
       <c r="W14" t="n">
-        <v>46440</v>
+        <v>39405</v>
       </c>
       <c r="X14" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B15" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81560</v>
+        <v>21073</v>
       </c>
       <c r="E15" t="n">
-        <v>6286</v>
+        <v>-285</v>
       </c>
       <c r="F15" t="n">
-        <v>8.350824986050961</v>
+        <v>-1.334394606236539</v>
       </c>
       <c r="G15" t="n">
-        <v>367193</v>
+        <v>159800</v>
       </c>
       <c r="H15" t="n">
-        <v>11.46</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>387.85</v>
+        <v>365</v>
       </c>
       <c r="J15" t="n">
-        <v>93.25</v>
+        <v>11.69999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>31.65308893414799</v>
+        <v>3.31163317294084</v>
       </c>
       <c r="L15" t="n">
-        <v>79005</v>
+        <v>29985</v>
       </c>
       <c r="M15" t="n">
-        <v>124020</v>
+        <v>57075</v>
       </c>
       <c r="N15" t="n">
-        <v>88905</v>
+        <v>31884</v>
       </c>
       <c r="O15" t="n">
-        <v>27300</v>
+        <v>8893</v>
       </c>
       <c r="P15" t="n">
-        <v>44.3145848551254</v>
+        <v>38.68035318167978</v>
       </c>
       <c r="Q15" t="n">
-        <v>571898</v>
+        <v>391943</v>
       </c>
       <c r="R15" t="n">
-        <v>11.64</v>
+        <v>11.88</v>
       </c>
       <c r="S15" t="n">
-        <v>195.9</v>
+        <v>201.9</v>
       </c>
       <c r="T15" t="n">
-        <v>-82.79999999999998</v>
+        <v>-35.04999999999998</v>
       </c>
       <c r="U15" t="n">
-        <v>-29.70936490850376</v>
+        <v>-14.79215024266722</v>
       </c>
       <c r="V15" t="n">
-        <v>74370</v>
+        <v>54840</v>
       </c>
       <c r="W15" t="n">
-        <v>98730</v>
+        <v>51165</v>
       </c>
       <c r="X15" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B16" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36212</v>
+        <v>112634</v>
       </c>
       <c r="E16" t="n">
-        <v>10305</v>
+        <v>37360</v>
       </c>
       <c r="F16" t="n">
-        <v>39.77689427567839</v>
+        <v>49.63201105295321</v>
       </c>
       <c r="G16" t="n">
-        <v>235827</v>
+        <v>744513</v>
       </c>
       <c r="H16" t="n">
-        <v>11.42</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I16" t="n">
-        <v>328.8</v>
+        <v>304.95</v>
       </c>
       <c r="J16" t="n">
-        <v>84.85000000000002</v>
+        <v>10.34999999999997</v>
       </c>
       <c r="K16" t="n">
-        <v>34.78171756507482</v>
+        <v>3.513238289205691</v>
       </c>
       <c r="L16" t="n">
-        <v>46635</v>
+        <v>96870</v>
       </c>
       <c r="M16" t="n">
-        <v>74490</v>
+        <v>180870</v>
       </c>
       <c r="N16" t="n">
-        <v>26439</v>
+        <v>108207</v>
       </c>
       <c r="O16" t="n">
-        <v>16978</v>
+        <v>46602</v>
       </c>
       <c r="P16" t="n">
-        <v>179.4524891660501</v>
+        <v>75.64645726807889</v>
       </c>
       <c r="Q16" t="n">
-        <v>281554</v>
+        <v>1083847</v>
       </c>
       <c r="R16" t="n">
-        <v>11.59</v>
+        <v>11.83</v>
       </c>
       <c r="S16" t="n">
-        <v>239</v>
+        <v>237.7</v>
       </c>
       <c r="T16" t="n">
-        <v>-88.85000000000002</v>
+        <v>-41</v>
       </c>
       <c r="U16" t="n">
-        <v>-27.10080829647705</v>
+        <v>-14.71115895227843</v>
       </c>
       <c r="V16" t="n">
-        <v>60810</v>
+        <v>88350</v>
       </c>
       <c r="W16" t="n">
-        <v>64860</v>
+        <v>136695</v>
       </c>
       <c r="X16" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B17" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54040</v>
+        <v>53745</v>
       </c>
       <c r="E17" t="n">
-        <v>25401</v>
+        <v>27838</v>
       </c>
       <c r="F17" t="n">
-        <v>88.69373930654004</v>
+        <v>107.4535839734435</v>
       </c>
       <c r="G17" t="n">
-        <v>414516</v>
+        <v>526375</v>
       </c>
       <c r="H17" t="n">
-        <v>11.3</v>
+        <v>9.93</v>
       </c>
       <c r="I17" t="n">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="J17" t="n">
-        <v>73.15000000000001</v>
+        <v>8.050000000000011</v>
       </c>
       <c r="K17" t="n">
-        <v>36.7865225044003</v>
+        <v>3.299856527977049</v>
       </c>
       <c r="L17" t="n">
-        <v>85845</v>
+        <v>45885</v>
       </c>
       <c r="M17" t="n">
-        <v>127320</v>
+        <v>124440</v>
       </c>
       <c r="N17" t="n">
-        <v>28100</v>
+        <v>29603</v>
       </c>
       <c r="O17" t="n">
-        <v>20243</v>
+        <v>20142</v>
       </c>
       <c r="P17" t="n">
-        <v>257.6428662339315</v>
+        <v>212.8950428073142</v>
       </c>
       <c r="Q17" t="n">
-        <v>374115</v>
+        <v>550392</v>
       </c>
       <c r="R17" t="n">
-        <v>11.45</v>
+        <v>11.72</v>
       </c>
       <c r="S17" t="n">
-        <v>281.5</v>
+        <v>287.7</v>
       </c>
       <c r="T17" t="n">
-        <v>-100</v>
+        <v>-40.15000000000003</v>
       </c>
       <c r="U17" t="n">
-        <v>-26.21231979030144</v>
+        <v>-12.24645417111485</v>
       </c>
       <c r="V17" t="n">
-        <v>68520</v>
+        <v>38085</v>
       </c>
       <c r="W17" t="n">
-        <v>44265</v>
+        <v>40185</v>
       </c>
       <c r="X17" t="n">
-        <v>44619.85</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B18" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>57055</v>
+        <v>63933</v>
       </c>
       <c r="E18" t="n">
-        <v>30314</v>
+        <v>35294</v>
       </c>
       <c r="F18" t="n">
-        <v>113.3615048053551</v>
+        <v>123.2375432103076</v>
       </c>
       <c r="G18" t="n">
-        <v>451640</v>
+        <v>687870</v>
       </c>
       <c r="H18" t="n">
-        <v>11.23</v>
+        <v>9.94</v>
       </c>
       <c r="I18" t="n">
-        <v>225.9</v>
+        <v>205</v>
       </c>
       <c r="J18" t="n">
-        <v>65.70000000000002</v>
+        <v>6.150000000000006</v>
       </c>
       <c r="K18" t="n">
-        <v>41.01123595505619</v>
+        <v>3.092783505154642</v>
       </c>
       <c r="L18" t="n">
-        <v>58035</v>
+        <v>67770</v>
       </c>
       <c r="M18" t="n">
-        <v>163605</v>
+        <v>166815</v>
       </c>
       <c r="N18" t="n">
-        <v>31861</v>
+        <v>25076</v>
       </c>
       <c r="O18" t="n">
-        <v>25851</v>
+        <v>17219</v>
       </c>
       <c r="P18" t="n">
-        <v>430.1331114808652</v>
+        <v>219.1548937253405</v>
       </c>
       <c r="Q18" t="n">
-        <v>407480</v>
+        <v>558341</v>
       </c>
       <c r="R18" t="n">
-        <v>11.44</v>
+        <v>11.71</v>
       </c>
       <c r="S18" t="n">
-        <v>334.55</v>
+        <v>338</v>
       </c>
       <c r="T18" t="n">
-        <v>-109.9</v>
+        <v>-43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>-24.72719091011362</v>
+        <v>-11.40235910878113</v>
       </c>
       <c r="V18" t="n">
-        <v>61695</v>
+        <v>228075</v>
       </c>
       <c r="W18" t="n">
-        <v>44775</v>
+        <v>34110</v>
       </c>
       <c r="X18" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54327546297</v>
+        <v>45162.6405787037</v>
       </c>
       <c r="B19" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42574</v>
+        <v>68377</v>
       </c>
       <c r="E19" t="n">
-        <v>23928</v>
+        <v>41636</v>
       </c>
       <c r="F19" t="n">
-        <v>128.3277914834281</v>
+        <v>155.7009835084701</v>
       </c>
       <c r="G19" t="n">
-        <v>308216</v>
+        <v>668423</v>
       </c>
       <c r="H19" t="n">
-        <v>11.2</v>
+        <v>9.93</v>
       </c>
       <c r="I19" t="n">
-        <v>184.3</v>
+        <v>164.95</v>
       </c>
       <c r="J19" t="n">
-        <v>58.25000000000001</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
-        <v>46.21182070606903</v>
+        <v>2.965043695380774</v>
       </c>
       <c r="L19" t="n">
-        <v>43230</v>
+        <v>55965</v>
       </c>
       <c r="M19" t="n">
-        <v>109470</v>
+        <v>152865</v>
       </c>
       <c r="N19" t="n">
-        <v>17494</v>
+        <v>21605</v>
       </c>
       <c r="O19" t="n">
-        <v>14960</v>
+        <v>15595</v>
       </c>
       <c r="P19" t="n">
-        <v>590.370955011839</v>
+        <v>259.4841930116473</v>
       </c>
       <c r="Q19" t="n">
-        <v>203450</v>
+        <v>526125</v>
       </c>
       <c r="R19" t="n">
-        <v>11.35</v>
+        <v>11.74</v>
       </c>
       <c r="S19" t="n">
-        <v>395</v>
+        <v>397.15</v>
       </c>
       <c r="T19" t="n">
-        <v>-111.95</v>
+        <v>-47.30000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>-22.08304566525298</v>
+        <v>-10.64236697041287</v>
       </c>
       <c r="V19" t="n">
-        <v>37065</v>
+        <v>45255</v>
       </c>
       <c r="W19" t="n">
-        <v>27240</v>
+        <v>23985</v>
       </c>
       <c r="X19" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B20" t="n">
-        <v>44400</v>
+        <v>44300</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15205</v>
+        <v>14244</v>
       </c>
       <c r="E20" t="n">
-        <v>-6153</v>
+        <v>-7427</v>
       </c>
       <c r="F20" t="n">
-        <v>-28.80887723569623</v>
+        <v>-34.27160721701814</v>
       </c>
       <c r="G20" t="n">
-        <v>72827</v>
+        <v>124604</v>
       </c>
       <c r="H20" t="n">
-        <v>11.69</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>454.95</v>
+        <v>419.05</v>
       </c>
       <c r="J20" t="n">
-        <v>101.65</v>
+        <v>-2.949999999999989</v>
       </c>
       <c r="K20" t="n">
-        <v>28.77158222473818</v>
+        <v>-0.6990521327014191</v>
       </c>
       <c r="L20" t="n">
-        <v>30015</v>
+        <v>22965</v>
       </c>
       <c r="M20" t="n">
-        <v>32475</v>
+        <v>23445</v>
       </c>
       <c r="N20" t="n">
-        <v>25786</v>
+        <v>38610</v>
       </c>
       <c r="O20" t="n">
-        <v>2795</v>
+        <v>10086</v>
       </c>
       <c r="P20" t="n">
-        <v>12.15693097298943</v>
+        <v>35.35969709718132</v>
       </c>
       <c r="Q20" t="n">
-        <v>219497</v>
+        <v>323152</v>
       </c>
       <c r="R20" t="n">
-        <v>11.82</v>
+        <v>11.95</v>
       </c>
       <c r="S20" t="n">
-        <v>164</v>
+        <v>172.35</v>
       </c>
       <c r="T20" t="n">
-        <v>-72.94999999999999</v>
+        <v>-26.84999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>-30.7870858830977</v>
+        <v>-13.4789156626506</v>
       </c>
       <c r="V20" t="n">
-        <v>33360</v>
+        <v>62850</v>
       </c>
       <c r="W20" t="n">
-        <v>46440</v>
+        <v>36060</v>
       </c>
       <c r="X20" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B21" t="n">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81560</v>
+        <v>20985</v>
       </c>
       <c r="E21" t="n">
-        <v>6286</v>
+        <v>-373</v>
       </c>
       <c r="F21" t="n">
-        <v>8.350824986050961</v>
+        <v>-1.746418203951681</v>
       </c>
       <c r="G21" t="n">
-        <v>367193</v>
+        <v>157744</v>
       </c>
       <c r="H21" t="n">
-        <v>11.46</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>387.85</v>
+        <v>361</v>
       </c>
       <c r="J21" t="n">
-        <v>93.25</v>
+        <v>7.699999999999989</v>
       </c>
       <c r="K21" t="n">
-        <v>31.65308893414799</v>
+        <v>2.179450891593543</v>
       </c>
       <c r="L21" t="n">
-        <v>79005</v>
+        <v>33885</v>
       </c>
       <c r="M21" t="n">
-        <v>124020</v>
+        <v>54870</v>
       </c>
       <c r="N21" t="n">
-        <v>88905</v>
+        <v>32200</v>
       </c>
       <c r="O21" t="n">
-        <v>27300</v>
+        <v>9209</v>
       </c>
       <c r="P21" t="n">
-        <v>44.3145848551254</v>
+        <v>40.05480405376017</v>
       </c>
       <c r="Q21" t="n">
-        <v>571898</v>
+        <v>386551</v>
       </c>
       <c r="R21" t="n">
-        <v>11.64</v>
+        <v>11.88</v>
       </c>
       <c r="S21" t="n">
-        <v>195.9</v>
+        <v>208.2</v>
       </c>
       <c r="T21" t="n">
-        <v>-82.79999999999998</v>
+        <v>-28.75</v>
       </c>
       <c r="U21" t="n">
-        <v>-29.70936490850376</v>
+        <v>-12.13336146866428</v>
       </c>
       <c r="V21" t="n">
-        <v>74370</v>
+        <v>45660</v>
       </c>
       <c r="W21" t="n">
-        <v>98730</v>
+        <v>48945</v>
       </c>
       <c r="X21" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B22" t="n">
-        <v>44600</v>
+        <v>44500</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36212</v>
+        <v>108766</v>
       </c>
       <c r="E22" t="n">
-        <v>10305</v>
+        <v>33492</v>
       </c>
       <c r="F22" t="n">
-        <v>39.77689427567839</v>
+        <v>44.49345059383054</v>
       </c>
       <c r="G22" t="n">
-        <v>235827</v>
+        <v>735977</v>
       </c>
       <c r="H22" t="n">
-        <v>11.42</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>328.8</v>
+        <v>296</v>
       </c>
       <c r="J22" t="n">
-        <v>84.85000000000002</v>
+        <v>1.399999999999977</v>
       </c>
       <c r="K22" t="n">
-        <v>34.78171756507482</v>
+        <v>0.4752206381534206</v>
       </c>
       <c r="L22" t="n">
-        <v>46635</v>
+        <v>98850</v>
       </c>
       <c r="M22" t="n">
-        <v>74490</v>
+        <v>191595</v>
       </c>
       <c r="N22" t="n">
-        <v>26439</v>
+        <v>108207</v>
       </c>
       <c r="O22" t="n">
-        <v>16978</v>
+        <v>46602</v>
       </c>
       <c r="P22" t="n">
-        <v>179.4524891660501</v>
+        <v>75.64645726807889</v>
       </c>
       <c r="Q22" t="n">
-        <v>281554</v>
+        <v>1067729</v>
       </c>
       <c r="R22" t="n">
-        <v>11.59</v>
+        <v>11.83</v>
       </c>
       <c r="S22" t="n">
-        <v>239</v>
+        <v>250.75</v>
       </c>
       <c r="T22" t="n">
-        <v>-88.85000000000002</v>
+        <v>-27.94999999999999</v>
       </c>
       <c r="U22" t="n">
-        <v>-27.10080829647705</v>
+        <v>-10.02870470039469</v>
       </c>
       <c r="V22" t="n">
-        <v>60810</v>
+        <v>109545</v>
       </c>
       <c r="W22" t="n">
-        <v>64860</v>
+        <v>111060</v>
       </c>
       <c r="X22" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B23" t="n">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>54040</v>
+        <v>53745</v>
       </c>
       <c r="E23" t="n">
-        <v>25401</v>
+        <v>27838</v>
       </c>
       <c r="F23" t="n">
-        <v>88.69373930654004</v>
+        <v>107.4535839734435</v>
       </c>
       <c r="G23" t="n">
-        <v>414516</v>
+        <v>522616</v>
       </c>
       <c r="H23" t="n">
-        <v>11.3</v>
+        <v>9.93</v>
       </c>
       <c r="I23" t="n">
-        <v>272</v>
+        <v>245.35</v>
       </c>
       <c r="J23" t="n">
-        <v>73.15000000000001</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="K23" t="n">
-        <v>36.7865225044003</v>
+        <v>0.5738880918220971</v>
       </c>
       <c r="L23" t="n">
-        <v>85845</v>
+        <v>40260</v>
       </c>
       <c r="M23" t="n">
-        <v>127320</v>
+        <v>132915</v>
       </c>
       <c r="N23" t="n">
-        <v>28100</v>
+        <v>29486</v>
       </c>
       <c r="O23" t="n">
-        <v>20243</v>
+        <v>20025</v>
       </c>
       <c r="P23" t="n">
-        <v>257.6428662339315</v>
+        <v>211.6583870626784</v>
       </c>
       <c r="Q23" t="n">
-        <v>374115</v>
+        <v>546425</v>
       </c>
       <c r="R23" t="n">
-        <v>11.45</v>
+        <v>11.72</v>
       </c>
       <c r="S23" t="n">
-        <v>281.5</v>
+        <v>298</v>
       </c>
       <c r="T23" t="n">
-        <v>-100</v>
+        <v>-29.85000000000002</v>
       </c>
       <c r="U23" t="n">
-        <v>-26.21231979030144</v>
+        <v>-9.104773524477663</v>
       </c>
       <c r="V23" t="n">
-        <v>68520</v>
+        <v>38685</v>
       </c>
       <c r="W23" t="n">
-        <v>44265</v>
+        <v>37365</v>
       </c>
       <c r="X23" t="n">
-        <v>44619.85</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B24" t="n">
-        <v>44800</v>
+        <v>44700</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>57055</v>
+        <v>63933</v>
       </c>
       <c r="E24" t="n">
-        <v>30314</v>
+        <v>35294</v>
       </c>
       <c r="F24" t="n">
-        <v>113.3615048053551</v>
+        <v>123.2375432103076</v>
       </c>
       <c r="G24" t="n">
-        <v>451640</v>
+        <v>684518</v>
       </c>
       <c r="H24" t="n">
-        <v>11.23</v>
+        <v>9.94</v>
       </c>
       <c r="I24" t="n">
-        <v>225.9</v>
+        <v>203.6</v>
       </c>
       <c r="J24" t="n">
-        <v>65.70000000000002</v>
+        <v>4.75</v>
       </c>
       <c r="K24" t="n">
-        <v>41.01123595505619</v>
+        <v>2.388735227558461</v>
       </c>
       <c r="L24" t="n">
-        <v>58035</v>
+        <v>70155</v>
       </c>
       <c r="M24" t="n">
-        <v>163605</v>
+        <v>166950</v>
       </c>
       <c r="N24" t="n">
-        <v>31861</v>
+        <v>25781</v>
       </c>
       <c r="O24" t="n">
-        <v>25851</v>
+        <v>17924</v>
       </c>
       <c r="P24" t="n">
-        <v>430.1331114808652</v>
+        <v>228.1277841415298</v>
       </c>
       <c r="Q24" t="n">
-        <v>407242</v>
+        <v>555115</v>
       </c>
       <c r="R24" t="n">
-        <v>11.44</v>
+        <v>11.71</v>
       </c>
       <c r="S24" t="n">
-        <v>324</v>
+        <v>352.05</v>
       </c>
       <c r="T24" t="n">
-        <v>-120.45</v>
+        <v>-29.44999999999999</v>
       </c>
       <c r="U24" t="n">
-        <v>-27.10091123860952</v>
+        <v>-7.719528178243771</v>
       </c>
       <c r="V24" t="n">
-        <v>64410</v>
+        <v>211965</v>
       </c>
       <c r="W24" t="n">
-        <v>45570</v>
+        <v>32160</v>
       </c>
       <c r="X24" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64009259259</v>
       </c>
       <c r="B25" t="n">
-        <v>44900</v>
+        <v>44800</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42364</v>
+        <v>68377</v>
       </c>
       <c r="E25" t="n">
-        <v>23718</v>
+        <v>41636</v>
       </c>
       <c r="F25" t="n">
-        <v>127.2015445671994</v>
+        <v>155.7009835084701</v>
       </c>
       <c r="G25" t="n">
-        <v>308216</v>
+        <v>665728</v>
       </c>
       <c r="H25" t="n">
-        <v>11.2</v>
+        <v>9.93</v>
       </c>
       <c r="I25" t="n">
-        <v>184.3</v>
+        <v>160.95</v>
       </c>
       <c r="J25" t="n">
-        <v>58.25000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="K25" t="n">
-        <v>46.21182070606903</v>
+        <v>0.4681647940074907</v>
       </c>
       <c r="L25" t="n">
-        <v>43230</v>
+        <v>61770</v>
       </c>
       <c r="M25" t="n">
-        <v>109470</v>
+        <v>152325</v>
       </c>
       <c r="N25" t="n">
-        <v>17494</v>
+        <v>21605</v>
       </c>
       <c r="O25" t="n">
-        <v>14960</v>
+        <v>15595</v>
       </c>
       <c r="P25" t="n">
-        <v>590.370955011839</v>
+        <v>259.4841930116473</v>
       </c>
       <c r="Q25" t="n">
-        <v>203450</v>
+        <v>524757</v>
       </c>
       <c r="R25" t="n">
-        <v>11.35</v>
+        <v>11.74</v>
       </c>
       <c r="S25" t="n">
-        <v>395</v>
+        <v>411.95</v>
       </c>
       <c r="T25" t="n">
-        <v>-111.95</v>
+        <v>-32.5</v>
       </c>
       <c r="U25" t="n">
-        <v>-22.08304566525298</v>
+        <v>-7.312408594892564</v>
       </c>
       <c r="V25" t="n">
-        <v>37065</v>
+        <v>45870</v>
       </c>
       <c r="W25" t="n">
-        <v>27240</v>
+        <v>23505</v>
       </c>
       <c r="X25" t="n">
-        <v>44609.95</v>
+        <v>44457.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B26" t="n">
-        <v>44400</v>
+        <v>44200</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15205</v>
+        <v>9659</v>
       </c>
       <c r="E26" t="n">
-        <v>-6153</v>
+        <v>-4245</v>
       </c>
       <c r="F26" t="n">
-        <v>-28.80887723569623</v>
+        <v>-30.53078250863061</v>
       </c>
       <c r="G26" t="n">
-        <v>72548</v>
+        <v>47298</v>
       </c>
       <c r="H26" t="n">
-        <v>11.69</v>
+        <v>9.91</v>
       </c>
       <c r="I26" t="n">
-        <v>467</v>
+        <v>491.95</v>
       </c>
       <c r="J26" t="n">
-        <v>113.7</v>
+        <v>5.949999999999989</v>
       </c>
       <c r="K26" t="n">
-        <v>32.18228134729691</v>
+        <v>1.224279835390944</v>
       </c>
       <c r="L26" t="n">
-        <v>29925</v>
+        <v>24525</v>
       </c>
       <c r="M26" t="n">
-        <v>31260</v>
+        <v>24930</v>
       </c>
       <c r="N26" t="n">
-        <v>25786</v>
+        <v>38685</v>
       </c>
       <c r="O26" t="n">
-        <v>2795</v>
+        <v>4100</v>
       </c>
       <c r="P26" t="n">
-        <v>12.15693097298943</v>
+        <v>11.85485036865693</v>
       </c>
       <c r="Q26" t="n">
-        <v>218451</v>
+        <v>309884</v>
       </c>
       <c r="R26" t="n">
-        <v>11.82</v>
+        <v>11.96</v>
       </c>
       <c r="S26" t="n">
-        <v>160.3</v>
+        <v>139.5</v>
       </c>
       <c r="T26" t="n">
-        <v>-76.64999999999998</v>
+        <v>-30</v>
       </c>
       <c r="U26" t="n">
-        <v>-32.34859675036927</v>
+        <v>-17.69911504424779</v>
       </c>
       <c r="V26" t="n">
-        <v>35205</v>
+        <v>43215</v>
       </c>
       <c r="W26" t="n">
-        <v>47910</v>
+        <v>44925</v>
       </c>
       <c r="X26" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B27" t="n">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>81560</v>
+        <v>13887</v>
       </c>
       <c r="E27" t="n">
-        <v>6286</v>
+        <v>-7784</v>
       </c>
       <c r="F27" t="n">
-        <v>8.350824986050961</v>
+        <v>-35.91897005214341</v>
       </c>
       <c r="G27" t="n">
-        <v>366449</v>
+        <v>124423</v>
       </c>
       <c r="H27" t="n">
-        <v>11.46</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>399.55</v>
+        <v>421.65</v>
       </c>
       <c r="J27" t="n">
-        <v>104.95</v>
+        <v>-0.3500000000000227</v>
       </c>
       <c r="K27" t="n">
-        <v>35.62457569585879</v>
+        <v>-0.08293838862559781</v>
       </c>
       <c r="L27" t="n">
-        <v>81015</v>
+        <v>23985</v>
       </c>
       <c r="M27" t="n">
-        <v>120930</v>
+        <v>23865</v>
       </c>
       <c r="N27" t="n">
-        <v>88905</v>
+        <v>39070</v>
       </c>
       <c r="O27" t="n">
-        <v>27300</v>
+        <v>10546</v>
       </c>
       <c r="P27" t="n">
-        <v>44.3145848551254</v>
+        <v>36.97237414107418</v>
       </c>
       <c r="Q27" t="n">
-        <v>570370</v>
+        <v>321752</v>
       </c>
       <c r="R27" t="n">
-        <v>11.64</v>
+        <v>11.95</v>
       </c>
       <c r="S27" t="n">
-        <v>192.1</v>
+        <v>168.75</v>
       </c>
       <c r="T27" t="n">
-        <v>-86.59999999999999</v>
+        <v>-30.44999999999999</v>
       </c>
       <c r="U27" t="n">
-        <v>-31.07283817725152</v>
+        <v>-15.28614457831325</v>
       </c>
       <c r="V27" t="n">
-        <v>70815</v>
+        <v>61395</v>
       </c>
       <c r="W27" t="n">
-        <v>99090</v>
+        <v>36555</v>
       </c>
       <c r="X27" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B28" t="n">
-        <v>44600</v>
+        <v>44400</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36212</v>
+        <v>20985</v>
       </c>
       <c r="E28" t="n">
-        <v>10305</v>
+        <v>-373</v>
       </c>
       <c r="F28" t="n">
-        <v>39.77689427567839</v>
+        <v>-1.746418203951681</v>
       </c>
       <c r="G28" t="n">
-        <v>234107</v>
+        <v>156728</v>
       </c>
       <c r="H28" t="n">
-        <v>11.42</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>340</v>
+        <v>357.6</v>
       </c>
       <c r="J28" t="n">
-        <v>96.05000000000001</v>
+        <v>4.300000000000011</v>
       </c>
       <c r="K28" t="n">
-        <v>39.37282229965157</v>
+        <v>1.217095952448347</v>
       </c>
       <c r="L28" t="n">
-        <v>52395</v>
+        <v>33195</v>
       </c>
       <c r="M28" t="n">
-        <v>71520</v>
+        <v>58875</v>
       </c>
       <c r="N28" t="n">
-        <v>26439</v>
+        <v>32200</v>
       </c>
       <c r="O28" t="n">
-        <v>16978</v>
+        <v>9209</v>
       </c>
       <c r="P28" t="n">
-        <v>179.4524891660501</v>
+        <v>40.05480405376017</v>
       </c>
       <c r="Q28" t="n">
-        <v>280290</v>
+        <v>384512</v>
       </c>
       <c r="R28" t="n">
-        <v>11.59</v>
+        <v>11.88</v>
       </c>
       <c r="S28" t="n">
-        <v>230</v>
+        <v>204.75</v>
       </c>
       <c r="T28" t="n">
-        <v>-97.85000000000002</v>
+        <v>-32.19999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>-29.84596614305323</v>
+        <v>-13.58936484490398</v>
       </c>
       <c r="V28" t="n">
-        <v>60915</v>
+        <v>46410</v>
       </c>
       <c r="W28" t="n">
-        <v>66195</v>
+        <v>50925</v>
       </c>
       <c r="X28" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B29" t="n">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54040</v>
+        <v>108766</v>
       </c>
       <c r="E29" t="n">
-        <v>25401</v>
+        <v>33492</v>
       </c>
       <c r="F29" t="n">
-        <v>88.69373930654004</v>
+        <v>44.49345059383054</v>
       </c>
       <c r="G29" t="n">
-        <v>412668</v>
+        <v>734155</v>
       </c>
       <c r="H29" t="n">
-        <v>11.3</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>283.7</v>
+        <v>298</v>
       </c>
       <c r="J29" t="n">
-        <v>84.84999999999999</v>
+        <v>3.399999999999977</v>
       </c>
       <c r="K29" t="n">
-        <v>42.67035453859693</v>
+        <v>1.15410726408689</v>
       </c>
       <c r="L29" t="n">
-        <v>90090</v>
+        <v>98790</v>
       </c>
       <c r="M29" t="n">
-        <v>124260</v>
+        <v>187950</v>
       </c>
       <c r="N29" t="n">
-        <v>28100</v>
+        <v>101395</v>
       </c>
       <c r="O29" t="n">
-        <v>20243</v>
+        <v>39790</v>
       </c>
       <c r="P29" t="n">
-        <v>257.6428662339315</v>
+        <v>64.58891323756188</v>
       </c>
       <c r="Q29" t="n">
-        <v>373169</v>
+        <v>1063442</v>
       </c>
       <c r="R29" t="n">
-        <v>11.45</v>
+        <v>11.83</v>
       </c>
       <c r="S29" t="n">
-        <v>274.8</v>
+        <v>246.6</v>
       </c>
       <c r="T29" t="n">
-        <v>-106.7</v>
+        <v>-32.09999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>-27.96854521625163</v>
+        <v>-11.51776103336921</v>
       </c>
       <c r="V29" t="n">
-        <v>70515</v>
+        <v>103560</v>
       </c>
       <c r="W29" t="n">
-        <v>44625</v>
+        <v>118710</v>
       </c>
       <c r="X29" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B30" t="n">
-        <v>44800</v>
+        <v>44600</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>57055</v>
+        <v>53399</v>
       </c>
       <c r="E30" t="n">
-        <v>30314</v>
+        <v>27492</v>
       </c>
       <c r="F30" t="n">
-        <v>113.3615048053551</v>
+        <v>106.1180375960165</v>
       </c>
       <c r="G30" t="n">
-        <v>450527</v>
+        <v>521388</v>
       </c>
       <c r="H30" t="n">
-        <v>11.23</v>
+        <v>9.93</v>
       </c>
       <c r="I30" t="n">
-        <v>233.75</v>
+        <v>246</v>
       </c>
       <c r="J30" t="n">
-        <v>73.55000000000001</v>
+        <v>2.050000000000011</v>
       </c>
       <c r="K30" t="n">
-        <v>45.91136079900126</v>
+        <v>0.8403361344537862</v>
       </c>
       <c r="L30" t="n">
-        <v>60585</v>
+        <v>38865</v>
       </c>
       <c r="M30" t="n">
-        <v>165525</v>
+        <v>133155</v>
       </c>
       <c r="N30" t="n">
-        <v>31861</v>
+        <v>29486</v>
       </c>
       <c r="O30" t="n">
-        <v>25851</v>
+        <v>20025</v>
       </c>
       <c r="P30" t="n">
-        <v>430.1331114808652</v>
+        <v>211.6583870626784</v>
       </c>
       <c r="Q30" t="n">
-        <v>406884</v>
+        <v>545398</v>
       </c>
       <c r="R30" t="n">
-        <v>11.44</v>
+        <v>11.72</v>
       </c>
       <c r="S30" t="n">
-        <v>325</v>
+        <v>294.3</v>
       </c>
       <c r="T30" t="n">
-        <v>-119.45</v>
+        <v>-33.55000000000001</v>
       </c>
       <c r="U30" t="n">
-        <v>-26.87591405107436</v>
+        <v>-10.23333841695898</v>
       </c>
       <c r="V30" t="n">
-        <v>64140</v>
+        <v>38730</v>
       </c>
       <c r="W30" t="n">
-        <v>43485</v>
+        <v>40725</v>
       </c>
       <c r="X30" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63929398148</v>
       </c>
       <c r="B31" t="n">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>42364</v>
+        <v>64768</v>
       </c>
       <c r="E31" t="n">
-        <v>23718</v>
+        <v>36129</v>
       </c>
       <c r="F31" t="n">
-        <v>127.2015445671994</v>
+        <v>126.1531478054401</v>
       </c>
       <c r="G31" t="n">
-        <v>307195</v>
+        <v>681733</v>
       </c>
       <c r="H31" t="n">
-        <v>11.2</v>
+        <v>9.94</v>
       </c>
       <c r="I31" t="n">
-        <v>191.05</v>
+        <v>200.45</v>
       </c>
       <c r="J31" t="n">
-        <v>65.00000000000001</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="K31" t="n">
-        <v>51.56683855612854</v>
+        <v>0.8046266029670578</v>
       </c>
       <c r="L31" t="n">
-        <v>44250</v>
+        <v>66195</v>
       </c>
       <c r="M31" t="n">
-        <v>109920</v>
+        <v>166995</v>
       </c>
       <c r="N31" t="n">
-        <v>17494</v>
+        <v>25781</v>
       </c>
       <c r="O31" t="n">
-        <v>14960</v>
+        <v>17924</v>
       </c>
       <c r="P31" t="n">
-        <v>590.370955011839</v>
+        <v>228.1277841415298</v>
       </c>
       <c r="Q31" t="n">
-        <v>203118</v>
+        <v>554345</v>
       </c>
       <c r="R31" t="n">
-        <v>11.35</v>
+        <v>11.71</v>
       </c>
       <c r="S31" t="n">
-        <v>382.65</v>
+        <v>349.1</v>
       </c>
       <c r="T31" t="n">
-        <v>-124.3</v>
+        <v>-32.39999999999998</v>
       </c>
       <c r="U31" t="n">
-        <v>-24.51918335141533</v>
+        <v>-8.492791612057662</v>
       </c>
       <c r="V31" t="n">
-        <v>36945</v>
+        <v>207825</v>
       </c>
       <c r="W31" t="n">
-        <v>28485</v>
+        <v>31065</v>
       </c>
       <c r="X31" t="n">
-        <v>44609.95</v>
+        <v>44468.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B32" t="n">
         <v>44400</v>
@@ -2852,72 +2852,72 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15205</v>
+        <v>15267</v>
       </c>
       <c r="E32" t="n">
-        <v>-6153</v>
+        <v>-6091</v>
       </c>
       <c r="F32" t="n">
-        <v>-28.80887723569623</v>
+        <v>-28.51858788276056</v>
       </c>
       <c r="G32" t="n">
-        <v>71989</v>
+        <v>73802</v>
       </c>
       <c r="H32" t="n">
-        <v>11.69</v>
+        <v>11.91</v>
       </c>
       <c r="I32" t="n">
-        <v>462.35</v>
+        <v>461.55</v>
       </c>
       <c r="J32" t="n">
-        <v>109.05</v>
+        <v>108.25</v>
       </c>
       <c r="K32" t="n">
-        <v>30.86611944523068</v>
+        <v>30.63968298896122</v>
       </c>
       <c r="L32" t="n">
-        <v>29010</v>
+        <v>29895</v>
       </c>
       <c r="M32" t="n">
-        <v>29025</v>
+        <v>30555</v>
       </c>
       <c r="N32" t="n">
-        <v>25786</v>
+        <v>25991</v>
       </c>
       <c r="O32" t="n">
-        <v>2795</v>
+        <v>3000</v>
       </c>
       <c r="P32" t="n">
-        <v>12.15693097298943</v>
+        <v>13.0485842286112</v>
       </c>
       <c r="Q32" t="n">
-        <v>218072</v>
+        <v>220628</v>
       </c>
       <c r="R32" t="n">
-        <v>11.82</v>
+        <v>11.65</v>
       </c>
       <c r="S32" t="n">
-        <v>163.3</v>
+        <v>163.25</v>
       </c>
       <c r="T32" t="n">
-        <v>-73.64999999999998</v>
+        <v>-73.69999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>-31.08250685798691</v>
+        <v>-31.10360835619328</v>
       </c>
       <c r="V32" t="n">
-        <v>34155</v>
+        <v>37260</v>
       </c>
       <c r="W32" t="n">
-        <v>45825</v>
+        <v>43695</v>
       </c>
       <c r="X32" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B33" t="n">
         <v>44500</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>81181</v>
+        <v>81472</v>
       </c>
       <c r="E33" t="n">
-        <v>5907</v>
+        <v>6198</v>
       </c>
       <c r="F33" t="n">
-        <v>7.847331083773946</v>
+        <v>8.23391875016606</v>
       </c>
       <c r="G33" t="n">
-        <v>365622</v>
+        <v>369439</v>
       </c>
       <c r="H33" t="n">
-        <v>11.46</v>
+        <v>11.39</v>
       </c>
       <c r="I33" t="n">
-        <v>395</v>
+        <v>392.6</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4</v>
+        <v>98</v>
       </c>
       <c r="K33" t="n">
-        <v>34.08010862186014</v>
+        <v>33.26544467073999</v>
       </c>
       <c r="L33" t="n">
-        <v>72090</v>
+        <v>74580</v>
       </c>
       <c r="M33" t="n">
-        <v>119580</v>
+        <v>122955</v>
       </c>
       <c r="N33" t="n">
-        <v>88905</v>
+        <v>89198</v>
       </c>
       <c r="O33" t="n">
-        <v>27300</v>
+        <v>27593</v>
       </c>
       <c r="P33" t="n">
-        <v>44.3145848551254</v>
+        <v>44.79019560100641</v>
       </c>
       <c r="Q33" t="n">
-        <v>569592</v>
+        <v>574661</v>
       </c>
       <c r="R33" t="n">
-        <v>11.64</v>
+        <v>11.44</v>
       </c>
       <c r="S33" t="n">
-        <v>195.75</v>
+        <v>196.45</v>
       </c>
       <c r="T33" t="n">
-        <v>-82.94999999999999</v>
+        <v>-82.25</v>
       </c>
       <c r="U33" t="n">
-        <v>-29.76318622174381</v>
+        <v>-29.51202009329027</v>
       </c>
       <c r="V33" t="n">
-        <v>72405</v>
+        <v>70470</v>
       </c>
       <c r="W33" t="n">
-        <v>97260</v>
+        <v>99315</v>
       </c>
       <c r="X33" t="n">
-        <v>44609.95</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B34" t="n">
         <v>44600</v>
@@ -3004,72 +3004,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35165</v>
+        <v>36245</v>
       </c>
       <c r="E34" t="n">
-        <v>9258</v>
+        <v>10338</v>
       </c>
       <c r="F34" t="n">
-        <v>35.73551549774192</v>
+        <v>39.90427297641564</v>
       </c>
       <c r="G34" t="n">
-        <v>232182</v>
+        <v>240859</v>
       </c>
       <c r="H34" t="n">
-        <v>11.42</v>
+        <v>11.46</v>
       </c>
       <c r="I34" t="n">
-        <v>340</v>
+        <v>334.1</v>
       </c>
       <c r="J34" t="n">
-        <v>96.05000000000001</v>
+        <v>90.15000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>39.37282229965157</v>
+        <v>36.95429391268704</v>
       </c>
       <c r="L34" t="n">
-        <v>49695</v>
+        <v>44805</v>
       </c>
       <c r="M34" t="n">
-        <v>72420</v>
+        <v>75705</v>
       </c>
       <c r="N34" t="n">
-        <v>26439</v>
+        <v>26565</v>
       </c>
       <c r="O34" t="n">
-        <v>16978</v>
+        <v>17104</v>
       </c>
       <c r="P34" t="n">
-        <v>179.4524891660501</v>
+        <v>180.784272275658</v>
       </c>
       <c r="Q34" t="n">
-        <v>278486</v>
+        <v>284536</v>
       </c>
       <c r="R34" t="n">
-        <v>11.59</v>
+        <v>11.38</v>
       </c>
       <c r="S34" t="n">
-        <v>230.2</v>
+        <v>236</v>
       </c>
       <c r="T34" t="n">
-        <v>-97.65000000000003</v>
+        <v>-91.85000000000002</v>
       </c>
       <c r="U34" t="n">
-        <v>-29.78496263535154</v>
+        <v>-28.01586091200245</v>
       </c>
       <c r="V34" t="n">
-        <v>61725</v>
+        <v>49635</v>
       </c>
       <c r="W34" t="n">
-        <v>61320</v>
+        <v>64185</v>
       </c>
       <c r="X34" t="n">
-        <v>44589.7</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B35" t="n">
         <v>44700</v>
@@ -3080,72 +3080,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>54040</v>
+        <v>54641</v>
       </c>
       <c r="E35" t="n">
-        <v>25401</v>
+        <v>26002</v>
       </c>
       <c r="F35" t="n">
-        <v>88.69373930654004</v>
+        <v>90.79227626662941</v>
       </c>
       <c r="G35" t="n">
-        <v>411185</v>
+        <v>419456</v>
       </c>
       <c r="H35" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="I35" t="n">
-        <v>282.95</v>
+        <v>276.7</v>
       </c>
       <c r="J35" t="n">
-        <v>84.09999999999999</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>42.29318581845612</v>
+        <v>39.15011315061604</v>
       </c>
       <c r="L35" t="n">
-        <v>89655</v>
+        <v>87285</v>
       </c>
       <c r="M35" t="n">
-        <v>122370</v>
+        <v>128250</v>
       </c>
       <c r="N35" t="n">
-        <v>28100</v>
+        <v>28665</v>
       </c>
       <c r="O35" t="n">
-        <v>20243</v>
+        <v>20808</v>
       </c>
       <c r="P35" t="n">
-        <v>257.6428662339315</v>
+        <v>264.8339060710195</v>
       </c>
       <c r="Q35" t="n">
-        <v>372444</v>
+        <v>378446</v>
       </c>
       <c r="R35" t="n">
-        <v>11.45</v>
+        <v>11.25</v>
       </c>
       <c r="S35" t="n">
-        <v>278.85</v>
+        <v>281.4</v>
       </c>
       <c r="T35" t="n">
-        <v>-102.65</v>
+        <v>-100.1</v>
       </c>
       <c r="U35" t="n">
-        <v>-26.90694626474442</v>
+        <v>-26.23853211009175</v>
       </c>
       <c r="V35" t="n">
-        <v>71985</v>
+        <v>45840</v>
       </c>
       <c r="W35" t="n">
-        <v>42915</v>
+        <v>44370</v>
       </c>
       <c r="X35" t="n">
-        <v>44609.95</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B36" t="n">
         <v>44800</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>57055</v>
+        <v>57529</v>
       </c>
       <c r="E36" t="n">
-        <v>30314</v>
+        <v>30788</v>
       </c>
       <c r="F36" t="n">
-        <v>113.3615048053551</v>
+        <v>115.1340637971654</v>
       </c>
       <c r="G36" t="n">
-        <v>449818</v>
+        <v>453737</v>
       </c>
       <c r="H36" t="n">
-        <v>11.23</v>
+        <v>11.17</v>
       </c>
       <c r="I36" t="n">
-        <v>233.1</v>
+        <v>230</v>
       </c>
       <c r="J36" t="n">
-        <v>72.90000000000001</v>
+        <v>69.80000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>45.5056179775281</v>
+        <v>43.57053682896381</v>
       </c>
       <c r="L36" t="n">
-        <v>58080</v>
+        <v>62475</v>
       </c>
       <c r="M36" t="n">
-        <v>164700</v>
+        <v>168840</v>
       </c>
       <c r="N36" t="n">
-        <v>31861</v>
+        <v>31702</v>
       </c>
       <c r="O36" t="n">
-        <v>25851</v>
+        <v>25692</v>
       </c>
       <c r="P36" t="n">
-        <v>430.1331114808652</v>
+        <v>427.4875207986689</v>
       </c>
       <c r="Q36" t="n">
-        <v>404909</v>
+        <v>408662</v>
       </c>
       <c r="R36" t="n">
-        <v>11.44</v>
+        <v>11.11</v>
       </c>
       <c r="S36" t="n">
-        <v>330</v>
+        <v>331.1</v>
       </c>
       <c r="T36" t="n">
-        <v>-114.45</v>
+        <v>-113.35</v>
       </c>
       <c r="U36" t="n">
-        <v>-25.75092811339858</v>
+        <v>-25.50343120710991</v>
       </c>
       <c r="V36" t="n">
-        <v>59145</v>
+        <v>55830</v>
       </c>
       <c r="W36" t="n">
-        <v>51705</v>
+        <v>45675</v>
       </c>
       <c r="X36" t="n">
-        <v>44609.95</v>
+        <v>44611.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54119212963</v>
+        <v>45162.54466435185</v>
       </c>
       <c r="B37" t="n">
         <v>44900</v>
@@ -3232,66 +3232,2346 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>42433</v>
+      </c>
+      <c r="E37" t="n">
+        <v>23787</v>
+      </c>
+      <c r="F37" t="n">
+        <v>127.5715971253888</v>
+      </c>
+      <c r="G37" t="n">
+        <v>309505</v>
+      </c>
+      <c r="H37" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="I37" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>60.55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>48.03649345497818</v>
+      </c>
+      <c r="L37" t="n">
+        <v>41580</v>
+      </c>
+      <c r="M37" t="n">
+        <v>111210</v>
+      </c>
+      <c r="N37" t="n">
+        <v>17380</v>
+      </c>
+      <c r="O37" t="n">
+        <v>14846</v>
+      </c>
+      <c r="P37" t="n">
+        <v>585.872138910813</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>204521</v>
+      </c>
+      <c r="R37" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="S37" t="n">
+        <v>387</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-119.95</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-23.66111056317191</v>
+      </c>
+      <c r="V37" t="n">
+        <v>37335</v>
+      </c>
+      <c r="W37" t="n">
+        <v>29415</v>
+      </c>
+      <c r="X37" t="n">
+        <v>44611.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B38" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15570</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-5788</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-27.09991572244592</v>
+      </c>
+      <c r="G38" t="n">
+        <v>73100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I38" t="n">
+        <v>451.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>98.59999999999997</v>
+      </c>
+      <c r="K38" t="n">
+        <v>27.90829323521086</v>
+      </c>
+      <c r="L38" t="n">
+        <v>31380</v>
+      </c>
+      <c r="M38" t="n">
+        <v>33195</v>
+      </c>
+      <c r="N38" t="n">
+        <v>25837</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2846</v>
+      </c>
+      <c r="P38" t="n">
+        <v>12.37875690487582</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>220203</v>
+      </c>
+      <c r="R38" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="S38" t="n">
+        <v>169.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-67.84999999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-28.63473306604769</v>
+      </c>
+      <c r="V38" t="n">
+        <v>33075</v>
+      </c>
+      <c r="W38" t="n">
+        <v>44475</v>
+      </c>
+      <c r="X38" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B39" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>81560</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6286</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.350824986050961</v>
+      </c>
+      <c r="G39" t="n">
+        <v>368456</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I39" t="n">
+        <v>383.95</v>
+      </c>
+      <c r="J39" t="n">
+        <v>89.34999999999997</v>
+      </c>
+      <c r="K39" t="n">
+        <v>30.32926001357772</v>
+      </c>
+      <c r="L39" t="n">
+        <v>73335</v>
+      </c>
+      <c r="M39" t="n">
+        <v>124050</v>
+      </c>
+      <c r="N39" t="n">
+        <v>88905</v>
+      </c>
+      <c r="O39" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P39" t="n">
+        <v>44.3145848551254</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>573143</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="S39" t="n">
+        <v>202.95</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-75.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-27.17976318622175</v>
+      </c>
+      <c r="V39" t="n">
+        <v>74760</v>
+      </c>
+      <c r="W39" t="n">
+        <v>98850</v>
+      </c>
+      <c r="X39" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B40" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>36212</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10305</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39.77689427567839</v>
+      </c>
+      <c r="G40" t="n">
+        <v>238123</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I40" t="n">
+        <v>326.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>82.44999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>33.7979094076655</v>
+      </c>
+      <c r="L40" t="n">
+        <v>42285</v>
+      </c>
+      <c r="M40" t="n">
+        <v>75900</v>
+      </c>
+      <c r="N40" t="n">
+        <v>26536</v>
+      </c>
+      <c r="O40" t="n">
+        <v>17075</v>
+      </c>
+      <c r="P40" t="n">
+        <v>180.4777507663038</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>283513</v>
+      </c>
+      <c r="R40" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S40" t="n">
+        <v>243.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-84.10000000000002</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-25.65197498856185</v>
+      </c>
+      <c r="V40" t="n">
+        <v>47745</v>
+      </c>
+      <c r="W40" t="n">
+        <v>61665</v>
+      </c>
+      <c r="X40" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B41" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>54040</v>
+      </c>
+      <c r="E41" t="n">
+        <v>25401</v>
+      </c>
+      <c r="F41" t="n">
+        <v>88.69373930654004</v>
+      </c>
+      <c r="G41" t="n">
+        <v>416762</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="J41" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>34.90067890369626</v>
+      </c>
+      <c r="L41" t="n">
+        <v>82875</v>
+      </c>
+      <c r="M41" t="n">
+        <v>128295</v>
+      </c>
+      <c r="N41" t="n">
+        <v>28100</v>
+      </c>
+      <c r="O41" t="n">
+        <v>20243</v>
+      </c>
+      <c r="P41" t="n">
+        <v>257.6428662339315</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>376613</v>
+      </c>
+      <c r="R41" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S41" t="n">
+        <v>286.95</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-94.55000000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-24.78374836173002</v>
+      </c>
+      <c r="V41" t="n">
+        <v>48930</v>
+      </c>
+      <c r="W41" t="n">
+        <v>39375</v>
+      </c>
+      <c r="X41" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B42" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>57055</v>
+      </c>
+      <c r="E42" t="n">
+        <v>30314</v>
+      </c>
+      <c r="F42" t="n">
+        <v>113.3615048053551</v>
+      </c>
+      <c r="G42" t="n">
+        <v>452848</v>
+      </c>
+      <c r="H42" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I42" t="n">
+        <v>219.85</v>
+      </c>
+      <c r="J42" t="n">
+        <v>59.65000000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37.2347066167291</v>
+      </c>
+      <c r="L42" t="n">
+        <v>58935</v>
+      </c>
+      <c r="M42" t="n">
+        <v>166635</v>
+      </c>
+      <c r="N42" t="n">
+        <v>31861</v>
+      </c>
+      <c r="O42" t="n">
+        <v>25851</v>
+      </c>
+      <c r="P42" t="n">
+        <v>430.1331114808652</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>408054</v>
+      </c>
+      <c r="R42" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>342.45</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-102</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-22.94971312858589</v>
+      </c>
+      <c r="V42" t="n">
+        <v>55860</v>
+      </c>
+      <c r="W42" t="n">
+        <v>44100</v>
+      </c>
+      <c r="X42" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.5439699074</v>
+      </c>
+      <c r="B43" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>42574</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23928</v>
+      </c>
+      <c r="F43" t="n">
+        <v>128.3277914834281</v>
+      </c>
+      <c r="G43" t="n">
+        <v>309002</v>
+      </c>
+      <c r="H43" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>182.05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="K43" t="n">
+        <v>44.4268147560492</v>
+      </c>
+      <c r="L43" t="n">
+        <v>39105</v>
+      </c>
+      <c r="M43" t="n">
+        <v>110595</v>
+      </c>
+      <c r="N43" t="n">
+        <v>17409</v>
+      </c>
+      <c r="O43" t="n">
+        <v>14875</v>
+      </c>
+      <c r="P43" t="n">
+        <v>587.0165745856353</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>203729</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="S43" t="n">
+        <v>398.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-108.55</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-21.41236808363744</v>
+      </c>
+      <c r="V43" t="n">
+        <v>37185</v>
+      </c>
+      <c r="W43" t="n">
+        <v>28650</v>
+      </c>
+      <c r="X43" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B44" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>15205</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-6153</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-28.80887723569623</v>
+      </c>
+      <c r="G44" t="n">
+        <v>72827</v>
+      </c>
+      <c r="H44" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I44" t="n">
+        <v>454.95</v>
+      </c>
+      <c r="J44" t="n">
+        <v>101.65</v>
+      </c>
+      <c r="K44" t="n">
+        <v>28.77158222473818</v>
+      </c>
+      <c r="L44" t="n">
+        <v>30015</v>
+      </c>
+      <c r="M44" t="n">
+        <v>32475</v>
+      </c>
+      <c r="N44" t="n">
+        <v>25786</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2795</v>
+      </c>
+      <c r="P44" t="n">
+        <v>12.15693097298943</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>219497</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="S44" t="n">
+        <v>164</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-72.94999999999999</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-30.7870858830977</v>
+      </c>
+      <c r="V44" t="n">
+        <v>33360</v>
+      </c>
+      <c r="W44" t="n">
+        <v>46440</v>
+      </c>
+      <c r="X44" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>81560</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6286</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.350824986050961</v>
+      </c>
+      <c r="G45" t="n">
+        <v>367193</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I45" t="n">
+        <v>387.85</v>
+      </c>
+      <c r="J45" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>31.65308893414799</v>
+      </c>
+      <c r="L45" t="n">
+        <v>79005</v>
+      </c>
+      <c r="M45" t="n">
+        <v>124020</v>
+      </c>
+      <c r="N45" t="n">
+        <v>88905</v>
+      </c>
+      <c r="O45" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P45" t="n">
+        <v>44.3145848551254</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>571898</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="S45" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-82.79999999999998</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-29.70936490850376</v>
+      </c>
+      <c r="V45" t="n">
+        <v>74370</v>
+      </c>
+      <c r="W45" t="n">
+        <v>98730</v>
+      </c>
+      <c r="X45" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>36212</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10305</v>
+      </c>
+      <c r="F46" t="n">
+        <v>39.77689427567839</v>
+      </c>
+      <c r="G46" t="n">
+        <v>235827</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I46" t="n">
+        <v>328.8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>84.85000000000002</v>
+      </c>
+      <c r="K46" t="n">
+        <v>34.78171756507482</v>
+      </c>
+      <c r="L46" t="n">
+        <v>46635</v>
+      </c>
+      <c r="M46" t="n">
+        <v>74490</v>
+      </c>
+      <c r="N46" t="n">
+        <v>26439</v>
+      </c>
+      <c r="O46" t="n">
+        <v>16978</v>
+      </c>
+      <c r="P46" t="n">
+        <v>179.4524891660501</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>281554</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S46" t="n">
+        <v>239</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-88.85000000000002</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-27.10080829647705</v>
+      </c>
+      <c r="V46" t="n">
+        <v>60810</v>
+      </c>
+      <c r="W46" t="n">
+        <v>64860</v>
+      </c>
+      <c r="X46" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B47" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>54040</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25401</v>
+      </c>
+      <c r="F47" t="n">
+        <v>88.69373930654004</v>
+      </c>
+      <c r="G47" t="n">
+        <v>414516</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>272</v>
+      </c>
+      <c r="J47" t="n">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="K47" t="n">
+        <v>36.7865225044003</v>
+      </c>
+      <c r="L47" t="n">
+        <v>85845</v>
+      </c>
+      <c r="M47" t="n">
+        <v>127320</v>
+      </c>
+      <c r="N47" t="n">
+        <v>28100</v>
+      </c>
+      <c r="O47" t="n">
+        <v>20243</v>
+      </c>
+      <c r="P47" t="n">
+        <v>257.6428662339315</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>374115</v>
+      </c>
+      <c r="R47" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S47" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-100</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-26.21231979030144</v>
+      </c>
+      <c r="V47" t="n">
+        <v>68520</v>
+      </c>
+      <c r="W47" t="n">
+        <v>44265</v>
+      </c>
+      <c r="X47" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B48" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>57055</v>
+      </c>
+      <c r="E48" t="n">
+        <v>30314</v>
+      </c>
+      <c r="F48" t="n">
+        <v>113.3615048053551</v>
+      </c>
+      <c r="G48" t="n">
+        <v>451640</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I48" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>65.70000000000002</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41.01123595505619</v>
+      </c>
+      <c r="L48" t="n">
+        <v>58035</v>
+      </c>
+      <c r="M48" t="n">
+        <v>163605</v>
+      </c>
+      <c r="N48" t="n">
+        <v>31861</v>
+      </c>
+      <c r="O48" t="n">
+        <v>25851</v>
+      </c>
+      <c r="P48" t="n">
+        <v>430.1331114808652</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>407480</v>
+      </c>
+      <c r="R48" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="S48" t="n">
+        <v>334.55</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-109.9</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-24.72719091011362</v>
+      </c>
+      <c r="V48" t="n">
+        <v>61695</v>
+      </c>
+      <c r="W48" t="n">
+        <v>44775</v>
+      </c>
+      <c r="X48" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54327546297</v>
+      </c>
+      <c r="B49" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>42574</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23928</v>
+      </c>
+      <c r="F49" t="n">
+        <v>128.3277914834281</v>
+      </c>
+      <c r="G49" t="n">
+        <v>308216</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>58.25000000000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>46.21182070606903</v>
+      </c>
+      <c r="L49" t="n">
+        <v>43230</v>
+      </c>
+      <c r="M49" t="n">
+        <v>109470</v>
+      </c>
+      <c r="N49" t="n">
+        <v>17494</v>
+      </c>
+      <c r="O49" t="n">
+        <v>14960</v>
+      </c>
+      <c r="P49" t="n">
+        <v>590.370955011839</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>203450</v>
+      </c>
+      <c r="R49" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="S49" t="n">
+        <v>395</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-111.95</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-22.08304566525298</v>
+      </c>
+      <c r="V49" t="n">
+        <v>37065</v>
+      </c>
+      <c r="W49" t="n">
+        <v>27240</v>
+      </c>
+      <c r="X49" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>15205</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-6153</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-28.80887723569623</v>
+      </c>
+      <c r="G50" t="n">
+        <v>72827</v>
+      </c>
+      <c r="H50" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I50" t="n">
+        <v>454.95</v>
+      </c>
+      <c r="J50" t="n">
+        <v>101.65</v>
+      </c>
+      <c r="K50" t="n">
+        <v>28.77158222473818</v>
+      </c>
+      <c r="L50" t="n">
+        <v>30015</v>
+      </c>
+      <c r="M50" t="n">
+        <v>32475</v>
+      </c>
+      <c r="N50" t="n">
+        <v>25786</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2795</v>
+      </c>
+      <c r="P50" t="n">
+        <v>12.15693097298943</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>219497</v>
+      </c>
+      <c r="R50" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="S50" t="n">
+        <v>164</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-72.94999999999999</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-30.7870858830977</v>
+      </c>
+      <c r="V50" t="n">
+        <v>33360</v>
+      </c>
+      <c r="W50" t="n">
+        <v>46440</v>
+      </c>
+      <c r="X50" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>81560</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6286</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8.350824986050961</v>
+      </c>
+      <c r="G51" t="n">
+        <v>367193</v>
+      </c>
+      <c r="H51" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I51" t="n">
+        <v>387.85</v>
+      </c>
+      <c r="J51" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="K51" t="n">
+        <v>31.65308893414799</v>
+      </c>
+      <c r="L51" t="n">
+        <v>79005</v>
+      </c>
+      <c r="M51" t="n">
+        <v>124020</v>
+      </c>
+      <c r="N51" t="n">
+        <v>88905</v>
+      </c>
+      <c r="O51" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P51" t="n">
+        <v>44.3145848551254</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>571898</v>
+      </c>
+      <c r="R51" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="S51" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-82.79999999999998</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-29.70936490850376</v>
+      </c>
+      <c r="V51" t="n">
+        <v>74370</v>
+      </c>
+      <c r="W51" t="n">
+        <v>98730</v>
+      </c>
+      <c r="X51" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>36212</v>
+      </c>
+      <c r="E52" t="n">
+        <v>10305</v>
+      </c>
+      <c r="F52" t="n">
+        <v>39.77689427567839</v>
+      </c>
+      <c r="G52" t="n">
+        <v>235827</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I52" t="n">
+        <v>328.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>84.85000000000002</v>
+      </c>
+      <c r="K52" t="n">
+        <v>34.78171756507482</v>
+      </c>
+      <c r="L52" t="n">
+        <v>46635</v>
+      </c>
+      <c r="M52" t="n">
+        <v>74490</v>
+      </c>
+      <c r="N52" t="n">
+        <v>26439</v>
+      </c>
+      <c r="O52" t="n">
+        <v>16978</v>
+      </c>
+      <c r="P52" t="n">
+        <v>179.4524891660501</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>281554</v>
+      </c>
+      <c r="R52" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S52" t="n">
+        <v>239</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-88.85000000000002</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-27.10080829647705</v>
+      </c>
+      <c r="V52" t="n">
+        <v>60810</v>
+      </c>
+      <c r="W52" t="n">
+        <v>64860</v>
+      </c>
+      <c r="X52" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>54040</v>
+      </c>
+      <c r="E53" t="n">
+        <v>25401</v>
+      </c>
+      <c r="F53" t="n">
+        <v>88.69373930654004</v>
+      </c>
+      <c r="G53" t="n">
+        <v>414516</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>272</v>
+      </c>
+      <c r="J53" t="n">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="K53" t="n">
+        <v>36.7865225044003</v>
+      </c>
+      <c r="L53" t="n">
+        <v>85845</v>
+      </c>
+      <c r="M53" t="n">
+        <v>127320</v>
+      </c>
+      <c r="N53" t="n">
+        <v>28100</v>
+      </c>
+      <c r="O53" t="n">
+        <v>20243</v>
+      </c>
+      <c r="P53" t="n">
+        <v>257.6428662339315</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>374115</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S53" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-100</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-26.21231979030144</v>
+      </c>
+      <c r="V53" t="n">
+        <v>68520</v>
+      </c>
+      <c r="W53" t="n">
+        <v>44265</v>
+      </c>
+      <c r="X53" t="n">
+        <v>44619.85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>57055</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30314</v>
+      </c>
+      <c r="F54" t="n">
+        <v>113.3615048053551</v>
+      </c>
+      <c r="G54" t="n">
+        <v>451640</v>
+      </c>
+      <c r="H54" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I54" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>65.70000000000002</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.01123595505619</v>
+      </c>
+      <c r="L54" t="n">
+        <v>58035</v>
+      </c>
+      <c r="M54" t="n">
+        <v>163605</v>
+      </c>
+      <c r="N54" t="n">
+        <v>31861</v>
+      </c>
+      <c r="O54" t="n">
+        <v>25851</v>
+      </c>
+      <c r="P54" t="n">
+        <v>430.1331114808652</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>407242</v>
+      </c>
+      <c r="R54" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="S54" t="n">
+        <v>324</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-120.45</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-27.10091123860952</v>
+      </c>
+      <c r="V54" t="n">
+        <v>64410</v>
+      </c>
+      <c r="W54" t="n">
+        <v>45570</v>
+      </c>
+      <c r="X54" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>42364</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E55" t="n">
         <v>23718</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F55" t="n">
         <v>127.2015445671994</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G55" t="n">
+        <v>308216</v>
+      </c>
+      <c r="H55" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>58.25000000000001</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.21182070606903</v>
+      </c>
+      <c r="L55" t="n">
+        <v>43230</v>
+      </c>
+      <c r="M55" t="n">
+        <v>109470</v>
+      </c>
+      <c r="N55" t="n">
+        <v>17494</v>
+      </c>
+      <c r="O55" t="n">
+        <v>14960</v>
+      </c>
+      <c r="P55" t="n">
+        <v>590.370955011839</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>203450</v>
+      </c>
+      <c r="R55" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="S55" t="n">
+        <v>395</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-111.95</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-22.08304566525298</v>
+      </c>
+      <c r="V55" t="n">
+        <v>37065</v>
+      </c>
+      <c r="W55" t="n">
+        <v>27240</v>
+      </c>
+      <c r="X55" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>15205</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-6153</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-28.80887723569623</v>
+      </c>
+      <c r="G56" t="n">
+        <v>72548</v>
+      </c>
+      <c r="H56" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I56" t="n">
+        <v>467</v>
+      </c>
+      <c r="J56" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="K56" t="n">
+        <v>32.18228134729691</v>
+      </c>
+      <c r="L56" t="n">
+        <v>29925</v>
+      </c>
+      <c r="M56" t="n">
+        <v>31260</v>
+      </c>
+      <c r="N56" t="n">
+        <v>25786</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2795</v>
+      </c>
+      <c r="P56" t="n">
+        <v>12.15693097298943</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>218451</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="S56" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-76.64999999999998</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-32.34859675036927</v>
+      </c>
+      <c r="V56" t="n">
+        <v>35205</v>
+      </c>
+      <c r="W56" t="n">
+        <v>47910</v>
+      </c>
+      <c r="X56" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>81560</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6286</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.350824986050961</v>
+      </c>
+      <c r="G57" t="n">
+        <v>366449</v>
+      </c>
+      <c r="H57" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I57" t="n">
+        <v>399.55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>104.95</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.62457569585879</v>
+      </c>
+      <c r="L57" t="n">
+        <v>81015</v>
+      </c>
+      <c r="M57" t="n">
+        <v>120930</v>
+      </c>
+      <c r="N57" t="n">
+        <v>88905</v>
+      </c>
+      <c r="O57" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P57" t="n">
+        <v>44.3145848551254</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>570370</v>
+      </c>
+      <c r="R57" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="S57" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-86.59999999999999</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-31.07283817725152</v>
+      </c>
+      <c r="V57" t="n">
+        <v>70815</v>
+      </c>
+      <c r="W57" t="n">
+        <v>99090</v>
+      </c>
+      <c r="X57" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>36212</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10305</v>
+      </c>
+      <c r="F58" t="n">
+        <v>39.77689427567839</v>
+      </c>
+      <c r="G58" t="n">
+        <v>234107</v>
+      </c>
+      <c r="H58" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I58" t="n">
+        <v>340</v>
+      </c>
+      <c r="J58" t="n">
+        <v>96.05000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>39.37282229965157</v>
+      </c>
+      <c r="L58" t="n">
+        <v>52395</v>
+      </c>
+      <c r="M58" t="n">
+        <v>71520</v>
+      </c>
+      <c r="N58" t="n">
+        <v>26439</v>
+      </c>
+      <c r="O58" t="n">
+        <v>16978</v>
+      </c>
+      <c r="P58" t="n">
+        <v>179.4524891660501</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>280290</v>
+      </c>
+      <c r="R58" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S58" t="n">
+        <v>230</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-97.85000000000002</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-29.84596614305323</v>
+      </c>
+      <c r="V58" t="n">
+        <v>60915</v>
+      </c>
+      <c r="W58" t="n">
+        <v>66195</v>
+      </c>
+      <c r="X58" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>54040</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25401</v>
+      </c>
+      <c r="F59" t="n">
+        <v>88.69373930654004</v>
+      </c>
+      <c r="G59" t="n">
+        <v>412668</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>283.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>84.84999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>42.67035453859693</v>
+      </c>
+      <c r="L59" t="n">
+        <v>90090</v>
+      </c>
+      <c r="M59" t="n">
+        <v>124260</v>
+      </c>
+      <c r="N59" t="n">
+        <v>28100</v>
+      </c>
+      <c r="O59" t="n">
+        <v>20243</v>
+      </c>
+      <c r="P59" t="n">
+        <v>257.6428662339315</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>373169</v>
+      </c>
+      <c r="R59" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S59" t="n">
+        <v>274.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-106.7</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-27.96854521625163</v>
+      </c>
+      <c r="V59" t="n">
+        <v>70515</v>
+      </c>
+      <c r="W59" t="n">
+        <v>44625</v>
+      </c>
+      <c r="X59" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>57055</v>
+      </c>
+      <c r="E60" t="n">
+        <v>30314</v>
+      </c>
+      <c r="F60" t="n">
+        <v>113.3615048053551</v>
+      </c>
+      <c r="G60" t="n">
+        <v>450527</v>
+      </c>
+      <c r="H60" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I60" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>73.55000000000001</v>
+      </c>
+      <c r="K60" t="n">
+        <v>45.91136079900126</v>
+      </c>
+      <c r="L60" t="n">
+        <v>60585</v>
+      </c>
+      <c r="M60" t="n">
+        <v>165525</v>
+      </c>
+      <c r="N60" t="n">
+        <v>31861</v>
+      </c>
+      <c r="O60" t="n">
+        <v>25851</v>
+      </c>
+      <c r="P60" t="n">
+        <v>430.1331114808652</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>406884</v>
+      </c>
+      <c r="R60" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="S60" t="n">
+        <v>325</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-119.45</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-26.87591405107436</v>
+      </c>
+      <c r="V60" t="n">
+        <v>64140</v>
+      </c>
+      <c r="W60" t="n">
+        <v>43485</v>
+      </c>
+      <c r="X60" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>42364</v>
+      </c>
+      <c r="E61" t="n">
+        <v>23718</v>
+      </c>
+      <c r="F61" t="n">
+        <v>127.2015445671994</v>
+      </c>
+      <c r="G61" t="n">
+        <v>307195</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>191.05</v>
+      </c>
+      <c r="J61" t="n">
+        <v>65.00000000000001</v>
+      </c>
+      <c r="K61" t="n">
+        <v>51.56683855612854</v>
+      </c>
+      <c r="L61" t="n">
+        <v>44250</v>
+      </c>
+      <c r="M61" t="n">
+        <v>109920</v>
+      </c>
+      <c r="N61" t="n">
+        <v>17494</v>
+      </c>
+      <c r="O61" t="n">
+        <v>14960</v>
+      </c>
+      <c r="P61" t="n">
+        <v>590.370955011839</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>203118</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="S61" t="n">
+        <v>382.65</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-124.3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-24.51918335141533</v>
+      </c>
+      <c r="V61" t="n">
+        <v>36945</v>
+      </c>
+      <c r="W61" t="n">
+        <v>28485</v>
+      </c>
+      <c r="X61" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B62" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>15205</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-6153</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-28.80887723569623</v>
+      </c>
+      <c r="G62" t="n">
+        <v>71989</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="I62" t="n">
+        <v>462.35</v>
+      </c>
+      <c r="J62" t="n">
+        <v>109.05</v>
+      </c>
+      <c r="K62" t="n">
+        <v>30.86611944523068</v>
+      </c>
+      <c r="L62" t="n">
+        <v>29010</v>
+      </c>
+      <c r="M62" t="n">
+        <v>29025</v>
+      </c>
+      <c r="N62" t="n">
+        <v>25786</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2795</v>
+      </c>
+      <c r="P62" t="n">
+        <v>12.15693097298943</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>218072</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="S62" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-73.64999999999998</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-31.08250685798691</v>
+      </c>
+      <c r="V62" t="n">
+        <v>34155</v>
+      </c>
+      <c r="W62" t="n">
+        <v>45825</v>
+      </c>
+      <c r="X62" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B63" t="n">
+        <v>44500</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>81181</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5907</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7.847331083773946</v>
+      </c>
+      <c r="G63" t="n">
+        <v>365622</v>
+      </c>
+      <c r="H63" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="I63" t="n">
+        <v>395</v>
+      </c>
+      <c r="J63" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>34.08010862186014</v>
+      </c>
+      <c r="L63" t="n">
+        <v>72090</v>
+      </c>
+      <c r="M63" t="n">
+        <v>119580</v>
+      </c>
+      <c r="N63" t="n">
+        <v>88905</v>
+      </c>
+      <c r="O63" t="n">
+        <v>27300</v>
+      </c>
+      <c r="P63" t="n">
+        <v>44.3145848551254</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>569592</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="S63" t="n">
+        <v>195.75</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-82.94999999999999</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-29.76318622174381</v>
+      </c>
+      <c r="V63" t="n">
+        <v>72405</v>
+      </c>
+      <c r="W63" t="n">
+        <v>97260</v>
+      </c>
+      <c r="X63" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B64" t="n">
+        <v>44600</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>35165</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9258</v>
+      </c>
+      <c r="F64" t="n">
+        <v>35.73551549774192</v>
+      </c>
+      <c r="G64" t="n">
+        <v>232182</v>
+      </c>
+      <c r="H64" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="I64" t="n">
+        <v>340</v>
+      </c>
+      <c r="J64" t="n">
+        <v>96.05000000000001</v>
+      </c>
+      <c r="K64" t="n">
+        <v>39.37282229965157</v>
+      </c>
+      <c r="L64" t="n">
+        <v>49695</v>
+      </c>
+      <c r="M64" t="n">
+        <v>72420</v>
+      </c>
+      <c r="N64" t="n">
+        <v>26439</v>
+      </c>
+      <c r="O64" t="n">
+        <v>16978</v>
+      </c>
+      <c r="P64" t="n">
+        <v>179.4524891660501</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>278486</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="S64" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-97.65000000000003</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-29.78496263535154</v>
+      </c>
+      <c r="V64" t="n">
+        <v>61725</v>
+      </c>
+      <c r="W64" t="n">
+        <v>61320</v>
+      </c>
+      <c r="X64" t="n">
+        <v>44589.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B65" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>54040</v>
+      </c>
+      <c r="E65" t="n">
+        <v>25401</v>
+      </c>
+      <c r="F65" t="n">
+        <v>88.69373930654004</v>
+      </c>
+      <c r="G65" t="n">
+        <v>411185</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>282.95</v>
+      </c>
+      <c r="J65" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>42.29318581845612</v>
+      </c>
+      <c r="L65" t="n">
+        <v>89655</v>
+      </c>
+      <c r="M65" t="n">
+        <v>122370</v>
+      </c>
+      <c r="N65" t="n">
+        <v>28100</v>
+      </c>
+      <c r="O65" t="n">
+        <v>20243</v>
+      </c>
+      <c r="P65" t="n">
+        <v>257.6428662339315</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>372444</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="S65" t="n">
+        <v>278.85</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-102.65</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-26.90694626474442</v>
+      </c>
+      <c r="V65" t="n">
+        <v>71985</v>
+      </c>
+      <c r="W65" t="n">
+        <v>42915</v>
+      </c>
+      <c r="X65" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B66" t="n">
+        <v>44800</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>57055</v>
+      </c>
+      <c r="E66" t="n">
+        <v>30314</v>
+      </c>
+      <c r="F66" t="n">
+        <v>113.3615048053551</v>
+      </c>
+      <c r="G66" t="n">
+        <v>449818</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="I66" t="n">
+        <v>233.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.5056179775281</v>
+      </c>
+      <c r="L66" t="n">
+        <v>58080</v>
+      </c>
+      <c r="M66" t="n">
+        <v>164700</v>
+      </c>
+      <c r="N66" t="n">
+        <v>31861</v>
+      </c>
+      <c r="O66" t="n">
+        <v>25851</v>
+      </c>
+      <c r="P66" t="n">
+        <v>430.1331114808652</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>404909</v>
+      </c>
+      <c r="R66" t="n">
+        <v>11.44</v>
+      </c>
+      <c r="S66" t="n">
+        <v>330</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-114.45</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-25.75092811339858</v>
+      </c>
+      <c r="V66" t="n">
+        <v>59145</v>
+      </c>
+      <c r="W66" t="n">
+        <v>51705</v>
+      </c>
+      <c r="X66" t="n">
+        <v>44609.95</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54119212963</v>
+      </c>
+      <c r="B67" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>31-Aug-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>42364</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23718</v>
+      </c>
+      <c r="F67" t="n">
+        <v>127.2015445671994</v>
+      </c>
+      <c r="G67" t="n">
         <v>306456</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H67" t="n">
         <v>11.2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I67" t="n">
         <v>187.85</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J67" t="n">
         <v>61.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K67" t="n">
         <v>49.02816342721142</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L67" t="n">
         <v>44670</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M67" t="n">
         <v>111420</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N67" t="n">
         <v>17494</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O67" t="n">
         <v>14960</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P67" t="n">
         <v>590.370955011839</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q67" t="n">
         <v>202928</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R67" t="n">
         <v>11.35</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S67" t="n">
         <v>389.5</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T67" t="n">
         <v>-117.45</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U67" t="n">
         <v>-23.16796528257224</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V67" t="n">
         <v>38070</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>26010</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>44609.95</v>
       </c>
     </row>
